--- a/INVENTARIOS DEPOSITO/20-7-2022 invent.xlsx
+++ b/INVENTARIOS DEPOSITO/20-7-2022 invent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chadi Salloum\Desktop\INVENTARIOS\INVENTARIOS DEPOSITO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28952328-BDFF-44BE-BA95-5A57E68E6F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42ADD093-ED3D-4B59-A9E4-7F95F2590A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8001A6F6-D8E1-4121-8D92-C4A64C78AF81}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3195" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="295">
   <si>
     <t>CO_ART</t>
   </si>
@@ -639,117 +639,6 @@
     <t>ZAPATO NIKE JOYRIDE RUN NEGRO BLANCO</t>
   </si>
   <si>
-    <t>NBN36AIR-10001</t>
-  </si>
-  <si>
-    <t>NBN37AIR-10001</t>
-  </si>
-  <si>
-    <t>NBN38AIR-10001</t>
-  </si>
-  <si>
-    <t>NBN39AIR-10001</t>
-  </si>
-  <si>
-    <t>NBN40AIR-10001</t>
-  </si>
-  <si>
-    <t>ZAPATO NIKE AIR FORCE ONE BLANCO NARANJA GUCCI</t>
-  </si>
-  <si>
-    <t>AIR FORCE ONE</t>
-  </si>
-  <si>
-    <t>BLANCO NARANJA GUCCI</t>
-  </si>
-  <si>
-    <t>AIR</t>
-  </si>
-  <si>
-    <t>NA36AIR-20002</t>
-  </si>
-  <si>
-    <t>NA37AIR-20002</t>
-  </si>
-  <si>
-    <t>NA38AIR-20002</t>
-  </si>
-  <si>
-    <t>NA39AIR-20002</t>
-  </si>
-  <si>
-    <t>NA40AIR-20002</t>
-  </si>
-  <si>
-    <t>ZAPATO NIKE AIR FORCE ONE AZUL DIOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AZUL DIOR </t>
-  </si>
-  <si>
-    <t>NBA36AIR-30003</t>
-  </si>
-  <si>
-    <t>NBA37AIR-30003</t>
-  </si>
-  <si>
-    <t>NBA38AIR-30003</t>
-  </si>
-  <si>
-    <t>NBA39AIR-30003</t>
-  </si>
-  <si>
-    <t>NBA40AIR-30003</t>
-  </si>
-  <si>
-    <t>ZAPATO NIKE AIR FORCE ONE BLANCO ARCOIRIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLANCO ARCOIRIS </t>
-  </si>
-  <si>
-    <t>NBC36AIR-40004</t>
-  </si>
-  <si>
-    <t>NBC37AIR-40004</t>
-  </si>
-  <si>
-    <t>NBC38AIR-40004</t>
-  </si>
-  <si>
-    <t>NBC39AIR-40004</t>
-  </si>
-  <si>
-    <t>NBC40AIR-40004</t>
-  </si>
-  <si>
-    <t>ZAPATO NIKE AIR FORCE ONE BLANCO COLORES LV</t>
-  </si>
-  <si>
-    <t>BLANCO COLORES LV</t>
-  </si>
-  <si>
-    <t>NBA36AIR-50005</t>
-  </si>
-  <si>
-    <t>NBA37AIR-50005</t>
-  </si>
-  <si>
-    <t>NBA38AIR-50005</t>
-  </si>
-  <si>
-    <t>NBA39AIR-50005</t>
-  </si>
-  <si>
-    <t>NBA40AIR-50005</t>
-  </si>
-  <si>
-    <t>ZAPATO NIKE AIR FORCE ONE BLANCO AZUL LV</t>
-  </si>
-  <si>
-    <t>BLANCO AZUL LV</t>
-  </si>
-  <si>
     <t>FN40F666-10001</t>
   </si>
   <si>
@@ -814,177 +703,6 @@
   </si>
   <si>
     <t>NEGRO VERDE</t>
-  </si>
-  <si>
-    <t>AB36STAR-10001</t>
-  </si>
-  <si>
-    <t>AB37STAR-10001</t>
-  </si>
-  <si>
-    <t>AB38STAR-10001</t>
-  </si>
-  <si>
-    <t>AB39STAR-10001</t>
-  </si>
-  <si>
-    <t>AB40STAR-10001</t>
-  </si>
-  <si>
-    <t>AB41STAR-10001</t>
-  </si>
-  <si>
-    <t>AB42STAR-10001</t>
-  </si>
-  <si>
-    <t>AB43STAR-10001</t>
-  </si>
-  <si>
-    <t>AB44STAR-10001</t>
-  </si>
-  <si>
-    <t>AB45STAR-10001</t>
-  </si>
-  <si>
-    <t>SUPERSTAR</t>
-  </si>
-  <si>
-    <t>ADIDAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>STAR</t>
-  </si>
-  <si>
-    <t>ABN36STAR-20002</t>
-  </si>
-  <si>
-    <t>ABN37STAR-20002</t>
-  </si>
-  <si>
-    <t>ABN38STAR-20002</t>
-  </si>
-  <si>
-    <t>ABN39STAR-20002</t>
-  </si>
-  <si>
-    <t>ABN40STAR-20002</t>
-  </si>
-  <si>
-    <t>ABN41STAR-20002</t>
-  </si>
-  <si>
-    <t>ABN42STAR-20002</t>
-  </si>
-  <si>
-    <t>ABN43STAR-20002</t>
-  </si>
-  <si>
-    <t>ABN44STAR-20002</t>
-  </si>
-  <si>
-    <t>ABN45STAR-20002</t>
-  </si>
-  <si>
-    <t>ZAPATO ADIDAS SUPER STAR BLANCO</t>
-  </si>
-  <si>
-    <t>ZAPATO ADIDAS SUPER STAR BLANCO NEGRO</t>
-  </si>
-  <si>
-    <t>BLANCO NEGRO</t>
-  </si>
-  <si>
-    <t>ANB36STAR-30003</t>
-  </si>
-  <si>
-    <t>ANB37STAR-30003</t>
-  </si>
-  <si>
-    <t>ANB38STAR-30003</t>
-  </si>
-  <si>
-    <t>ANB39STAR-30003</t>
-  </si>
-  <si>
-    <t>ANB40STAR-30003</t>
-  </si>
-  <si>
-    <t>ANB41STAR-30003</t>
-  </si>
-  <si>
-    <t>ANB42STAR-30003</t>
-  </si>
-  <si>
-    <t>ANB43STAR-30003</t>
-  </si>
-  <si>
-    <t>ANB44STAR-30003</t>
-  </si>
-  <si>
-    <t>ANB45STAR-30003</t>
-  </si>
-  <si>
-    <t>ZAPATO ADIDAS SUPER STAR NEGRO BLANCO</t>
-  </si>
-  <si>
-    <t>ZAPATO ADIDAS SUPER STAR BLANCO TORNASOL</t>
-  </si>
-  <si>
-    <t>ABT36STAR-40004</t>
-  </si>
-  <si>
-    <t>ABT37STAR-40004</t>
-  </si>
-  <si>
-    <t>ABT38STAR-40004</t>
-  </si>
-  <si>
-    <t>ABT39STAR-40004</t>
-  </si>
-  <si>
-    <t>ABT40STAR-40004</t>
-  </si>
-  <si>
-    <t>BLANCO TORNASOL</t>
-  </si>
-  <si>
-    <t>ABNR36STAR-50005</t>
-  </si>
-  <si>
-    <t>ABNR37STAR-50005</t>
-  </si>
-  <si>
-    <t>ABNR38STAR-50005</t>
-  </si>
-  <si>
-    <t>ABNR39STAR-50005</t>
-  </si>
-  <si>
-    <t>ABNR40STAR-50005</t>
-  </si>
-  <si>
-    <t>ABNR41STAR-50005</t>
-  </si>
-  <si>
-    <t>ABNR42STAR-50005</t>
-  </si>
-  <si>
-    <t>ABNR43STAR-50005</t>
-  </si>
-  <si>
-    <t>ABNR44STAR-50005</t>
-  </si>
-  <si>
-    <t>ABNR45STAR-50005</t>
-  </si>
-  <si>
-    <t>ZAPATO ADIDAS SUPER STAR BLANCO NEGRO ROJO</t>
-  </si>
-  <si>
-    <t>BLANCO NEGRO ROJO</t>
   </si>
   <si>
     <t>CN36CVBT-10001</t>
@@ -1583,10 +1301,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910F22F0-F4CD-45E5-B8AF-0C50B326A656}">
-  <dimension ref="A1:Z265"/>
+  <dimension ref="A1:Z195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C250" workbookViewId="0">
-      <selection activeCell="X201" sqref="X201"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N195" sqref="N2:N195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,7 +1435,7 @@
         <v>44</v>
       </c>
       <c r="N2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -1776,7 +1494,7 @@
         <v>44</v>
       </c>
       <c r="N3">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="T3">
         <v>1</v>
@@ -1835,7 +1553,7 @@
         <v>44</v>
       </c>
       <c r="N4">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="T4">
         <v>1</v>
@@ -1894,7 +1612,7 @@
         <v>44</v>
       </c>
       <c r="N5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="T5">
         <v>1</v>
@@ -1953,7 +1671,7 @@
         <v>44</v>
       </c>
       <c r="N6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -2012,7 +1730,7 @@
         <v>44</v>
       </c>
       <c r="N7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T7">
         <v>1</v>
@@ -2071,7 +1789,7 @@
         <v>44</v>
       </c>
       <c r="N8">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -2130,7 +1848,7 @@
         <v>44</v>
       </c>
       <c r="N9">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="T9">
         <v>1</v>
@@ -2189,7 +1907,7 @@
         <v>44</v>
       </c>
       <c r="N10">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T10">
         <v>1</v>
@@ -2248,7 +1966,7 @@
         <v>44</v>
       </c>
       <c r="N11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="T11">
         <v>1</v>
@@ -2307,7 +2025,7 @@
         <v>44</v>
       </c>
       <c r="N12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -2366,7 +2084,7 @@
         <v>44</v>
       </c>
       <c r="N13">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="T13">
         <v>1</v>
@@ -2425,7 +2143,7 @@
         <v>44</v>
       </c>
       <c r="N14">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="T14">
         <v>1</v>
@@ -2484,7 +2202,7 @@
         <v>44</v>
       </c>
       <c r="N15">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="T15">
         <v>1</v>
@@ -2543,7 +2261,7 @@
         <v>44</v>
       </c>
       <c r="N16">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T16">
         <v>1</v>
@@ -2602,7 +2320,7 @@
         <v>44</v>
       </c>
       <c r="N17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T17">
         <v>1</v>
@@ -2661,7 +2379,7 @@
         <v>44</v>
       </c>
       <c r="N18">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T18">
         <v>1</v>
@@ -2720,7 +2438,7 @@
         <v>44</v>
       </c>
       <c r="N19">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="T19">
         <v>1</v>
@@ -2779,7 +2497,7 @@
         <v>44</v>
       </c>
       <c r="N20">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="T20">
         <v>1</v>
@@ -2838,7 +2556,7 @@
         <v>44</v>
       </c>
       <c r="N21">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T21">
         <v>1</v>
@@ -2897,7 +2615,7 @@
         <v>44</v>
       </c>
       <c r="N22">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T22">
         <v>1</v>
@@ -2956,7 +2674,7 @@
         <v>44</v>
       </c>
       <c r="N23">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T23">
         <v>1</v>
@@ -3015,7 +2733,7 @@
         <v>44</v>
       </c>
       <c r="N24">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="T24">
         <v>1</v>
@@ -3074,7 +2792,7 @@
         <v>44</v>
       </c>
       <c r="N25">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="T25">
         <v>1</v>
@@ -3133,7 +2851,7 @@
         <v>44</v>
       </c>
       <c r="N26">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T26">
         <v>1</v>
@@ -3192,7 +2910,7 @@
         <v>44</v>
       </c>
       <c r="N27">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T27">
         <v>1</v>
@@ -3251,7 +2969,7 @@
         <v>44</v>
       </c>
       <c r="N28">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="T28">
         <v>1</v>
@@ -3310,7 +3028,7 @@
         <v>44</v>
       </c>
       <c r="N29">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="T29">
         <v>1</v>
@@ -3369,7 +3087,7 @@
         <v>44</v>
       </c>
       <c r="N30">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="T30">
         <v>1</v>
@@ -3428,7 +3146,7 @@
         <v>44</v>
       </c>
       <c r="N31">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T31">
         <v>1</v>
@@ -3487,7 +3205,7 @@
         <v>44</v>
       </c>
       <c r="N32">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T32">
         <v>1</v>
@@ -3546,7 +3264,7 @@
         <v>44</v>
       </c>
       <c r="N33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T33">
         <v>1</v>
@@ -3605,7 +3323,7 @@
         <v>44</v>
       </c>
       <c r="N34">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T34">
         <v>1</v>
@@ -3664,7 +3382,7 @@
         <v>44</v>
       </c>
       <c r="N35">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="T35">
         <v>1</v>
@@ -3723,7 +3441,7 @@
         <v>44</v>
       </c>
       <c r="N36">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="T36">
         <v>1</v>
@@ -3782,7 +3500,7 @@
         <v>44</v>
       </c>
       <c r="N37">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T37">
         <v>1</v>
@@ -3841,7 +3559,7 @@
         <v>44</v>
       </c>
       <c r="N38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T38">
         <v>1</v>
@@ -3900,7 +3618,7 @@
         <v>44</v>
       </c>
       <c r="N39">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T39">
         <v>1</v>
@@ -3959,7 +3677,7 @@
         <v>44</v>
       </c>
       <c r="N40">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T40">
         <v>1</v>
@@ -4018,7 +3736,7 @@
         <v>44</v>
       </c>
       <c r="N41">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="T41">
         <v>1</v>
@@ -4077,7 +3795,7 @@
         <v>44</v>
       </c>
       <c r="N42">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="T42">
         <v>1</v>
@@ -4136,7 +3854,7 @@
         <v>44</v>
       </c>
       <c r="N43">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T43">
         <v>1</v>
@@ -4195,7 +3913,7 @@
         <v>44</v>
       </c>
       <c r="N44">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T44">
         <v>1</v>
@@ -4254,7 +3972,7 @@
         <v>44</v>
       </c>
       <c r="N45">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T45">
         <v>1</v>
@@ -4313,7 +4031,7 @@
         <v>44</v>
       </c>
       <c r="N46">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="T46">
         <v>1</v>
@@ -4372,7 +4090,7 @@
         <v>44</v>
       </c>
       <c r="N47">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="T47">
         <v>1</v>
@@ -4431,7 +4149,7 @@
         <v>44</v>
       </c>
       <c r="N48">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T48">
         <v>1</v>
@@ -4490,7 +4208,7 @@
         <v>44</v>
       </c>
       <c r="N49">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T49">
         <v>1</v>
@@ -4549,7 +4267,7 @@
         <v>44</v>
       </c>
       <c r="N50">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="T50">
         <v>1</v>
@@ -4608,7 +4326,7 @@
         <v>44</v>
       </c>
       <c r="N51">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="T51">
         <v>1</v>
@@ -4667,7 +4385,7 @@
         <v>44</v>
       </c>
       <c r="N52">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="T52">
         <v>1</v>
@@ -4726,7 +4444,7 @@
         <v>44</v>
       </c>
       <c r="N53">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T53">
         <v>1</v>
@@ -4785,7 +4503,7 @@
         <v>44</v>
       </c>
       <c r="N54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T54">
         <v>1</v>
@@ -4844,7 +4562,7 @@
         <v>110</v>
       </c>
       <c r="N55">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T55">
         <v>1</v>
@@ -4903,7 +4621,7 @@
         <v>110</v>
       </c>
       <c r="N56">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="T56">
         <v>1</v>
@@ -4962,7 +4680,7 @@
         <v>110</v>
       </c>
       <c r="N57">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="T57">
         <v>1</v>
@@ -5021,7 +4739,7 @@
         <v>110</v>
       </c>
       <c r="N58">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T58">
         <v>1</v>
@@ -5080,7 +4798,7 @@
         <v>110</v>
       </c>
       <c r="N59">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T59">
         <v>1</v>
@@ -5139,7 +4857,7 @@
         <v>110</v>
       </c>
       <c r="N60">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="T60">
         <v>1</v>
@@ -5198,7 +4916,7 @@
         <v>110</v>
       </c>
       <c r="N61">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="T61">
         <v>1</v>
@@ -5257,7 +4975,7 @@
         <v>110</v>
       </c>
       <c r="N62">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="T62">
         <v>1</v>
@@ -5316,7 +5034,7 @@
         <v>110</v>
       </c>
       <c r="N63">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="T63">
         <v>1</v>
@@ -5375,7 +5093,7 @@
         <v>110</v>
       </c>
       <c r="N64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T64">
         <v>1</v>
@@ -5434,7 +5152,7 @@
         <v>110</v>
       </c>
       <c r="N65">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="T65">
         <v>1</v>
@@ -5493,7 +5211,7 @@
         <v>110</v>
       </c>
       <c r="N66">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="T66">
         <v>1</v>
@@ -5552,7 +5270,7 @@
         <v>110</v>
       </c>
       <c r="N67">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="T67">
         <v>1</v>
@@ -5611,7 +5329,7 @@
         <v>110</v>
       </c>
       <c r="N68">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T68">
         <v>1</v>
@@ -5670,7 +5388,7 @@
         <v>110</v>
       </c>
       <c r="N69">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T69">
         <v>1</v>
@@ -5729,7 +5447,7 @@
         <v>110</v>
       </c>
       <c r="N70">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T70">
         <v>1</v>
@@ -5788,7 +5506,7 @@
         <v>110</v>
       </c>
       <c r="N71">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="T71">
         <v>1</v>
@@ -5847,7 +5565,7 @@
         <v>110</v>
       </c>
       <c r="N72">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="T72">
         <v>1</v>
@@ -5906,7 +5624,7 @@
         <v>110</v>
       </c>
       <c r="N73">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="T73">
         <v>1</v>
@@ -5965,7 +5683,7 @@
         <v>110</v>
       </c>
       <c r="N74">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T74">
         <v>1</v>
@@ -6024,7 +5742,7 @@
         <v>110</v>
       </c>
       <c r="N75">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T75">
         <v>1</v>
@@ -6083,7 +5801,7 @@
         <v>110</v>
       </c>
       <c r="N76">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="T76">
         <v>1</v>
@@ -6142,7 +5860,7 @@
         <v>110</v>
       </c>
       <c r="N77">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="T77">
         <v>1</v>
@@ -6201,7 +5919,7 @@
         <v>110</v>
       </c>
       <c r="N78">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T78">
         <v>1</v>
@@ -6260,7 +5978,7 @@
         <v>110</v>
       </c>
       <c r="N79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T79">
         <v>1</v>
@@ -6319,7 +6037,7 @@
         <v>44</v>
       </c>
       <c r="N80">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T80">
         <v>1</v>
@@ -6378,7 +6096,7 @@
         <v>44</v>
       </c>
       <c r="N81">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="T81">
         <v>1</v>
@@ -6437,7 +6155,7 @@
         <v>44</v>
       </c>
       <c r="N82">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="T82">
         <v>1</v>
@@ -6496,7 +6214,7 @@
         <v>44</v>
       </c>
       <c r="N83">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T83">
         <v>1</v>
@@ -6555,7 +6273,7 @@
         <v>44</v>
       </c>
       <c r="N84">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T84">
         <v>1</v>
@@ -6614,7 +6332,7 @@
         <v>44</v>
       </c>
       <c r="N85">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="T85">
         <v>1</v>
@@ -6673,7 +6391,7 @@
         <v>44</v>
       </c>
       <c r="N86">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="T86">
         <v>1</v>
@@ -6732,7 +6450,7 @@
         <v>44</v>
       </c>
       <c r="N87">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="T87">
         <v>1</v>
@@ -6791,7 +6509,7 @@
         <v>44</v>
       </c>
       <c r="N88">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T88">
         <v>1</v>
@@ -6850,7 +6568,7 @@
         <v>44</v>
       </c>
       <c r="N89">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T89">
         <v>1</v>
@@ -6909,7 +6627,7 @@
         <v>44</v>
       </c>
       <c r="N90">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T90">
         <v>1</v>
@@ -6968,7 +6686,7 @@
         <v>44</v>
       </c>
       <c r="N91">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="T91">
         <v>1</v>
@@ -7027,7 +6745,7 @@
         <v>44</v>
       </c>
       <c r="N92">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="T92">
         <v>1</v>
@@ -7086,7 +6804,7 @@
         <v>44</v>
       </c>
       <c r="N93">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T93">
         <v>1</v>
@@ -7145,7 +6863,7 @@
         <v>44</v>
       </c>
       <c r="N94">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T94">
         <v>1</v>
@@ -7204,7 +6922,7 @@
         <v>44</v>
       </c>
       <c r="N95">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T95">
         <v>1</v>
@@ -7263,7 +6981,7 @@
         <v>44</v>
       </c>
       <c r="N96">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="T96">
         <v>1</v>
@@ -7322,7 +7040,7 @@
         <v>44</v>
       </c>
       <c r="N97">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="T97">
         <v>1</v>
@@ -7381,7 +7099,7 @@
         <v>44</v>
       </c>
       <c r="N98">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T98">
         <v>1</v>
@@ -7440,7 +7158,7 @@
         <v>44</v>
       </c>
       <c r="N99">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T99">
         <v>1</v>
@@ -7499,7 +7217,7 @@
         <v>44</v>
       </c>
       <c r="N100">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T100">
         <v>1</v>
@@ -7558,7 +7276,7 @@
         <v>44</v>
       </c>
       <c r="N101">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="T101">
         <v>1</v>
@@ -7617,7 +7335,7 @@
         <v>44</v>
       </c>
       <c r="N102">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="T102">
         <v>1</v>
@@ -7676,7 +7394,7 @@
         <v>44</v>
       </c>
       <c r="N103">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T103">
         <v>1</v>
@@ -7735,7 +7453,7 @@
         <v>44</v>
       </c>
       <c r="N104">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="T104">
         <v>1</v>
@@ -7788,13 +7506,13 @@
         <v>180</v>
       </c>
       <c r="J105">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="K105" t="s">
         <v>44</v>
       </c>
       <c r="N105">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T105">
         <v>1</v>
@@ -7853,7 +7571,7 @@
         <v>44</v>
       </c>
       <c r="N106">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="T106">
         <v>1</v>
@@ -7912,7 +7630,7 @@
         <v>44</v>
       </c>
       <c r="N107">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="T107">
         <v>1</v>
@@ -7971,7 +7689,7 @@
         <v>44</v>
       </c>
       <c r="N108">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T108">
         <v>1</v>
@@ -8030,7 +7748,7 @@
         <v>44</v>
       </c>
       <c r="N109">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T109">
         <v>1</v>
@@ -8089,7 +7807,7 @@
         <v>44</v>
       </c>
       <c r="N110">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="T110">
         <v>1</v>
@@ -8148,7 +7866,7 @@
         <v>44</v>
       </c>
       <c r="N111">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="T111">
         <v>1</v>
@@ -8207,7 +7925,7 @@
         <v>44</v>
       </c>
       <c r="N112">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="T112">
         <v>1</v>
@@ -8266,7 +7984,7 @@
         <v>44</v>
       </c>
       <c r="N113">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T113">
         <v>1</v>
@@ -8325,7 +8043,7 @@
         <v>44</v>
       </c>
       <c r="N114">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="T114">
         <v>1</v>
@@ -8384,7 +8102,7 @@
         <v>44</v>
       </c>
       <c r="N115">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T115">
         <v>1</v>
@@ -8443,7 +8161,7 @@
         <v>44</v>
       </c>
       <c r="N116">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="T116">
         <v>1</v>
@@ -8502,7 +8220,7 @@
         <v>44</v>
       </c>
       <c r="N117">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="T117">
         <v>1</v>
@@ -8561,7 +8279,7 @@
         <v>44</v>
       </c>
       <c r="N118">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T118">
         <v>1</v>
@@ -8620,7 +8338,7 @@
         <v>44</v>
       </c>
       <c r="N119">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T119">
         <v>1</v>
@@ -8679,7 +8397,7 @@
         <v>44</v>
       </c>
       <c r="N120">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T120">
         <v>1</v>
@@ -8738,7 +8456,7 @@
         <v>44</v>
       </c>
       <c r="N121">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="T121">
         <v>1</v>
@@ -8797,7 +8515,7 @@
         <v>44</v>
       </c>
       <c r="N122">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="T122">
         <v>1</v>
@@ -8856,7 +8574,7 @@
         <v>44</v>
       </c>
       <c r="N123">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T123">
         <v>1</v>
@@ -8915,7 +8633,7 @@
         <v>44</v>
       </c>
       <c r="N124">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T124">
         <v>1</v>
@@ -8974,7 +8692,7 @@
         <v>44</v>
       </c>
       <c r="N125">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="T125">
         <v>1</v>
@@ -9033,7 +8751,7 @@
         <v>44</v>
       </c>
       <c r="N126">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="T126">
         <v>1</v>
@@ -9092,7 +8810,7 @@
         <v>44</v>
       </c>
       <c r="N127">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="T127">
         <v>1</v>
@@ -9151,7 +8869,7 @@
         <v>44</v>
       </c>
       <c r="N128">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T128">
         <v>1</v>
@@ -9210,7 +8928,7 @@
         <v>44</v>
       </c>
       <c r="N129">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T129">
         <v>1</v>
@@ -9245,7 +8963,7 @@
         <v>36</v>
       </c>
       <c r="D130" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E130" t="s">
         <v>39</v>
@@ -9263,19 +8981,19 @@
         <v>211</v>
       </c>
       <c r="J130">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K130" t="s">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="N130">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="T130">
         <v>1</v>
       </c>
       <c r="U130">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="V130" t="s">
         <v>45</v>
@@ -9304,7 +9022,7 @@
         <v>36</v>
       </c>
       <c r="D131" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E131" t="s">
         <v>39</v>
@@ -9322,19 +9040,19 @@
         <v>211</v>
       </c>
       <c r="J131">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K131" t="s">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="N131">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="T131">
         <v>1</v>
       </c>
       <c r="U131">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="V131" t="s">
         <v>45</v>
@@ -9363,7 +9081,7 @@
         <v>36</v>
       </c>
       <c r="D132" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E132" t="s">
         <v>39</v>
@@ -9381,19 +9099,19 @@
         <v>211</v>
       </c>
       <c r="J132">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K132" t="s">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="N132">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="T132">
         <v>1</v>
       </c>
       <c r="U132">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="V132" t="s">
         <v>45</v>
@@ -9422,7 +9140,7 @@
         <v>36</v>
       </c>
       <c r="D133" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E133" t="s">
         <v>39</v>
@@ -9440,19 +9158,19 @@
         <v>211</v>
       </c>
       <c r="J133">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K133" t="s">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="N133">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="T133">
         <v>1</v>
       </c>
       <c r="U133">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="V133" t="s">
         <v>45</v>
@@ -9481,7 +9199,7 @@
         <v>36</v>
       </c>
       <c r="D134" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E134" t="s">
         <v>39</v>
@@ -9499,19 +9217,19 @@
         <v>211</v>
       </c>
       <c r="J134">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K134" t="s">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="N134">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T134">
         <v>1</v>
       </c>
       <c r="U134">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="V134" t="s">
         <v>45</v>
@@ -9540,7 +9258,7 @@
         <v>36</v>
       </c>
       <c r="D135" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E135" t="s">
         <v>39</v>
@@ -9555,22 +9273,22 @@
         <v>210</v>
       </c>
       <c r="I135" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="J135">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K135" t="s">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="N135">
+        <v>1</v>
+      </c>
+      <c r="T135">
+        <v>1</v>
+      </c>
+      <c r="U135">
         <v>15</v>
-      </c>
-      <c r="T135">
-        <v>1</v>
-      </c>
-      <c r="U135">
-        <v>20</v>
       </c>
       <c r="V135" t="s">
         <v>45</v>
@@ -9599,7 +9317,7 @@
         <v>36</v>
       </c>
       <c r="D136" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E136" t="s">
         <v>39</v>
@@ -9614,22 +9332,22 @@
         <v>210</v>
       </c>
       <c r="I136" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="J136">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K136" t="s">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="N136">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="T136">
         <v>1</v>
       </c>
       <c r="U136">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="V136" t="s">
         <v>45</v>
@@ -9658,7 +9376,7 @@
         <v>36</v>
       </c>
       <c r="D137" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E137" t="s">
         <v>39</v>
@@ -9673,22 +9391,22 @@
         <v>210</v>
       </c>
       <c r="I137" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="J137">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K137" t="s">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="N137">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="T137">
         <v>1</v>
       </c>
       <c r="U137">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="V137" t="s">
         <v>45</v>
@@ -9717,7 +9435,7 @@
         <v>36</v>
       </c>
       <c r="D138" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E138" t="s">
         <v>39</v>
@@ -9732,22 +9450,22 @@
         <v>210</v>
       </c>
       <c r="I138" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="J138">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K138" t="s">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="N138">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="T138">
         <v>1</v>
       </c>
       <c r="U138">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="V138" t="s">
         <v>45</v>
@@ -9776,7 +9494,7 @@
         <v>36</v>
       </c>
       <c r="D139" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E139" t="s">
         <v>39</v>
@@ -9791,22 +9509,22 @@
         <v>210</v>
       </c>
       <c r="I139" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="J139">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K139" t="s">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="N139">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T139">
         <v>1</v>
       </c>
       <c r="U139">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="V139" t="s">
         <v>45</v>
@@ -9826,16 +9544,16 @@
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>219</v>
+      </c>
+      <c r="B140" t="s">
         <v>220</v>
       </c>
-      <c r="B140" t="s">
-        <v>225</v>
-      </c>
       <c r="C140" t="s">
         <v>36</v>
       </c>
       <c r="D140" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E140" t="s">
         <v>39</v>
@@ -9850,22 +9568,22 @@
         <v>210</v>
       </c>
       <c r="I140" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J140">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K140" t="s">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="N140">
+        <v>1</v>
+      </c>
+      <c r="T140">
+        <v>1</v>
+      </c>
+      <c r="U140">
         <v>15</v>
-      </c>
-      <c r="T140">
-        <v>1</v>
-      </c>
-      <c r="U140">
-        <v>20</v>
       </c>
       <c r="V140" t="s">
         <v>45</v>
@@ -9888,13 +9606,13 @@
         <v>221</v>
       </c>
       <c r="B141" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C141" t="s">
         <v>36</v>
       </c>
       <c r="D141" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E141" t="s">
         <v>39</v>
@@ -9909,22 +9627,22 @@
         <v>210</v>
       </c>
       <c r="I141" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J141">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K141" t="s">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="N141">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="T141">
         <v>1</v>
       </c>
       <c r="U141">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="V141" t="s">
         <v>45</v>
@@ -9947,13 +9665,13 @@
         <v>222</v>
       </c>
       <c r="B142" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C142" t="s">
         <v>36</v>
       </c>
       <c r="D142" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E142" t="s">
         <v>39</v>
@@ -9968,22 +9686,22 @@
         <v>210</v>
       </c>
       <c r="I142" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J142">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K142" t="s">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="N142">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="T142">
         <v>1</v>
       </c>
       <c r="U142">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="V142" t="s">
         <v>45</v>
@@ -10006,13 +9724,13 @@
         <v>223</v>
       </c>
       <c r="B143" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C143" t="s">
         <v>36</v>
       </c>
       <c r="D143" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E143" t="s">
         <v>39</v>
@@ -10027,22 +9745,22 @@
         <v>210</v>
       </c>
       <c r="I143" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J143">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K143" t="s">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="N143">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="T143">
         <v>1</v>
       </c>
       <c r="U143">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="V143" t="s">
         <v>45</v>
@@ -10065,13 +9783,13 @@
         <v>224</v>
       </c>
       <c r="B144" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C144" t="s">
         <v>36</v>
       </c>
       <c r="D144" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E144" t="s">
         <v>39</v>
@@ -10086,16 +9804,16 @@
         <v>210</v>
       </c>
       <c r="I144" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J144">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K144" t="s">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="N144">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T144">
         <v>1</v>
@@ -10121,46 +9839,46 @@
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B145" t="s">
+        <v>231</v>
+      </c>
+      <c r="C145" t="s">
+        <v>36</v>
+      </c>
+      <c r="D145" t="s">
+        <v>37</v>
+      </c>
+      <c r="E145" t="s">
+        <v>39</v>
+      </c>
+      <c r="F145" t="s">
+        <v>40</v>
+      </c>
+      <c r="G145" t="s">
         <v>232</v>
       </c>
-      <c r="C145" t="s">
-        <v>36</v>
-      </c>
-      <c r="D145" t="s">
-        <v>37</v>
-      </c>
-      <c r="E145" t="s">
-        <v>39</v>
-      </c>
-      <c r="F145" t="s">
-        <v>40</v>
-      </c>
-      <c r="G145" t="s">
-        <v>41</v>
-      </c>
       <c r="H145" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="I145" t="s">
+        <v>211</v>
+      </c>
+      <c r="J145">
+        <v>36</v>
+      </c>
+      <c r="K145" t="s">
         <v>233</v>
       </c>
-      <c r="J145">
-        <v>36</v>
-      </c>
-      <c r="K145" t="s">
-        <v>44</v>
-      </c>
       <c r="N145">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="T145">
         <v>1</v>
       </c>
       <c r="U145">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V145" t="s">
         <v>45</v>
@@ -10175,51 +9893,51 @@
         <v>5</v>
       </c>
       <c r="Z145" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B146" t="s">
+        <v>231</v>
+      </c>
+      <c r="C146" t="s">
+        <v>36</v>
+      </c>
+      <c r="D146" t="s">
+        <v>37</v>
+      </c>
+      <c r="E146" t="s">
+        <v>39</v>
+      </c>
+      <c r="F146" t="s">
+        <v>40</v>
+      </c>
+      <c r="G146" t="s">
         <v>232</v>
       </c>
-      <c r="C146" t="s">
-        <v>36</v>
-      </c>
-      <c r="D146" t="s">
-        <v>37</v>
-      </c>
-      <c r="E146" t="s">
-        <v>39</v>
-      </c>
-      <c r="F146" t="s">
-        <v>40</v>
-      </c>
-      <c r="G146" t="s">
-        <v>41</v>
-      </c>
       <c r="H146" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="I146" t="s">
+        <v>211</v>
+      </c>
+      <c r="J146">
+        <v>37</v>
+      </c>
+      <c r="K146" t="s">
         <v>233</v>
       </c>
-      <c r="J146">
-        <v>37</v>
-      </c>
-      <c r="K146" t="s">
-        <v>44</v>
-      </c>
       <c r="N146">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="T146">
         <v>1</v>
       </c>
       <c r="U146">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V146" t="s">
         <v>45</v>
@@ -10234,52 +9952,52 @@
         <v>5</v>
       </c>
       <c r="Z146" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B147" t="s">
+        <v>231</v>
+      </c>
+      <c r="C147" t="s">
+        <v>36</v>
+      </c>
+      <c r="D147" t="s">
+        <v>37</v>
+      </c>
+      <c r="E147" t="s">
+        <v>39</v>
+      </c>
+      <c r="F147" t="s">
+        <v>40</v>
+      </c>
+      <c r="G147" t="s">
         <v>232</v>
       </c>
-      <c r="C147" t="s">
-        <v>36</v>
-      </c>
-      <c r="D147" t="s">
-        <v>37</v>
-      </c>
-      <c r="E147" t="s">
-        <v>39</v>
-      </c>
-      <c r="F147" t="s">
-        <v>40</v>
-      </c>
-      <c r="G147" t="s">
-        <v>41</v>
-      </c>
       <c r="H147" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="I147" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="J147">
         <v>38</v>
       </c>
       <c r="K147" t="s">
-        <v>44</v>
+        <v>233</v>
       </c>
       <c r="N147">
+        <v>5</v>
+      </c>
+      <c r="T147">
+        <v>1</v>
+      </c>
+      <c r="U147">
         <v>25</v>
       </c>
-      <c r="T147">
-        <v>1</v>
-      </c>
-      <c r="U147">
-        <v>20</v>
-      </c>
       <c r="V147" t="s">
         <v>45</v>
       </c>
@@ -10293,51 +10011,51 @@
         <v>5</v>
       </c>
       <c r="Z147" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B148" t="s">
+        <v>231</v>
+      </c>
+      <c r="C148" t="s">
+        <v>36</v>
+      </c>
+      <c r="D148" t="s">
+        <v>37</v>
+      </c>
+      <c r="E148" t="s">
+        <v>39</v>
+      </c>
+      <c r="F148" t="s">
+        <v>40</v>
+      </c>
+      <c r="G148" t="s">
         <v>232</v>
       </c>
-      <c r="C148" t="s">
-        <v>36</v>
-      </c>
-      <c r="D148" t="s">
-        <v>37</v>
-      </c>
-      <c r="E148" t="s">
-        <v>39</v>
-      </c>
-      <c r="F148" t="s">
-        <v>40</v>
-      </c>
-      <c r="G148" t="s">
-        <v>41</v>
-      </c>
       <c r="H148" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="I148" t="s">
+        <v>211</v>
+      </c>
+      <c r="J148">
+        <v>39</v>
+      </c>
+      <c r="K148" t="s">
         <v>233</v>
       </c>
-      <c r="J148">
-        <v>39</v>
-      </c>
-      <c r="K148" t="s">
-        <v>44</v>
-      </c>
       <c r="N148">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="T148">
         <v>1</v>
       </c>
       <c r="U148">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V148" t="s">
         <v>45</v>
@@ -10352,51 +10070,51 @@
         <v>5</v>
       </c>
       <c r="Z148" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>230</v>
+      </c>
+      <c r="B149" t="s">
         <v>231</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
+        <v>36</v>
+      </c>
+      <c r="D149" t="s">
+        <v>37</v>
+      </c>
+      <c r="E149" t="s">
+        <v>39</v>
+      </c>
+      <c r="F149" t="s">
+        <v>40</v>
+      </c>
+      <c r="G149" t="s">
         <v>232</v>
       </c>
-      <c r="C149" t="s">
-        <v>36</v>
-      </c>
-      <c r="D149" t="s">
-        <v>37</v>
-      </c>
-      <c r="E149" t="s">
-        <v>39</v>
-      </c>
-      <c r="F149" t="s">
-        <v>40</v>
-      </c>
-      <c r="G149" t="s">
-        <v>41</v>
-      </c>
       <c r="H149" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="I149" t="s">
+        <v>211</v>
+      </c>
+      <c r="J149">
+        <v>40</v>
+      </c>
+      <c r="K149" t="s">
         <v>233</v>
       </c>
-      <c r="J149">
-        <v>40</v>
-      </c>
-      <c r="K149" t="s">
-        <v>44</v>
-      </c>
       <c r="N149">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T149">
         <v>1</v>
       </c>
       <c r="U149">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V149" t="s">
         <v>45</v>
@@ -10411,7 +10129,7 @@
         <v>5</v>
       </c>
       <c r="Z149" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.25">
@@ -10434,43 +10152,43 @@
         <v>40</v>
       </c>
       <c r="G150" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="H150" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="I150" t="s">
+        <v>155</v>
+      </c>
+      <c r="J150">
+        <v>36</v>
+      </c>
+      <c r="K150" t="s">
+        <v>233</v>
+      </c>
+      <c r="N150">
+        <v>3</v>
+      </c>
+      <c r="T150">
+        <v>1</v>
+      </c>
+      <c r="U150">
+        <v>25</v>
+      </c>
+      <c r="V150" t="s">
+        <v>45</v>
+      </c>
+      <c r="W150">
+        <v>1</v>
+      </c>
+      <c r="X150">
+        <v>25998807</v>
+      </c>
+      <c r="Y150">
+        <v>5</v>
+      </c>
+      <c r="Z150" t="s">
         <v>240</v>
-      </c>
-      <c r="J150">
-        <v>36</v>
-      </c>
-      <c r="K150" t="s">
-        <v>44</v>
-      </c>
-      <c r="N150">
-        <v>12</v>
-      </c>
-      <c r="T150">
-        <v>1</v>
-      </c>
-      <c r="U150">
-        <v>20</v>
-      </c>
-      <c r="V150" t="s">
-        <v>45</v>
-      </c>
-      <c r="W150">
-        <v>1</v>
-      </c>
-      <c r="X150">
-        <v>25998807</v>
-      </c>
-      <c r="Y150">
-        <v>5</v>
-      </c>
-      <c r="Z150" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.25">
@@ -10493,43 +10211,43 @@
         <v>40</v>
       </c>
       <c r="G151" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="H151" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="I151" t="s">
+        <v>155</v>
+      </c>
+      <c r="J151">
+        <v>37</v>
+      </c>
+      <c r="K151" t="s">
+        <v>233</v>
+      </c>
+      <c r="N151">
+        <v>4</v>
+      </c>
+      <c r="T151">
+        <v>1</v>
+      </c>
+      <c r="U151">
+        <v>25</v>
+      </c>
+      <c r="V151" t="s">
+        <v>45</v>
+      </c>
+      <c r="W151">
+        <v>1</v>
+      </c>
+      <c r="X151">
+        <v>25998807</v>
+      </c>
+      <c r="Y151">
+        <v>5</v>
+      </c>
+      <c r="Z151" t="s">
         <v>240</v>
-      </c>
-      <c r="J151">
-        <v>37</v>
-      </c>
-      <c r="K151" t="s">
-        <v>44</v>
-      </c>
-      <c r="N151">
-        <v>18</v>
-      </c>
-      <c r="T151">
-        <v>1</v>
-      </c>
-      <c r="U151">
-        <v>20</v>
-      </c>
-      <c r="V151" t="s">
-        <v>45</v>
-      </c>
-      <c r="W151">
-        <v>1</v>
-      </c>
-      <c r="X151">
-        <v>25998807</v>
-      </c>
-      <c r="Y151">
-        <v>5</v>
-      </c>
-      <c r="Z151" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.25">
@@ -10552,28 +10270,28 @@
         <v>40</v>
       </c>
       <c r="G152" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="H152" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="I152" t="s">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="J152">
         <v>38</v>
       </c>
       <c r="K152" t="s">
-        <v>44</v>
+        <v>233</v>
       </c>
       <c r="N152">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="T152">
         <v>1</v>
       </c>
       <c r="U152">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V152" t="s">
         <v>45</v>
@@ -10588,7 +10306,7 @@
         <v>5</v>
       </c>
       <c r="Z152" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.25">
@@ -10611,43 +10329,43 @@
         <v>40</v>
       </c>
       <c r="G153" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="H153" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="I153" t="s">
+        <v>155</v>
+      </c>
+      <c r="J153">
+        <v>39</v>
+      </c>
+      <c r="K153" t="s">
+        <v>233</v>
+      </c>
+      <c r="N153">
+        <v>5</v>
+      </c>
+      <c r="T153">
+        <v>1</v>
+      </c>
+      <c r="U153">
+        <v>25</v>
+      </c>
+      <c r="V153" t="s">
+        <v>45</v>
+      </c>
+      <c r="W153">
+        <v>1</v>
+      </c>
+      <c r="X153">
+        <v>25998807</v>
+      </c>
+      <c r="Y153">
+        <v>5</v>
+      </c>
+      <c r="Z153" t="s">
         <v>240</v>
-      </c>
-      <c r="J153">
-        <v>39</v>
-      </c>
-      <c r="K153" t="s">
-        <v>44</v>
-      </c>
-      <c r="N153">
-        <v>12</v>
-      </c>
-      <c r="T153">
-        <v>1</v>
-      </c>
-      <c r="U153">
-        <v>20</v>
-      </c>
-      <c r="V153" t="s">
-        <v>45</v>
-      </c>
-      <c r="W153">
-        <v>1</v>
-      </c>
-      <c r="X153">
-        <v>25998807</v>
-      </c>
-      <c r="Y153">
-        <v>5</v>
-      </c>
-      <c r="Z153" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="154" spans="1:26" x14ac:dyDescent="0.25">
@@ -10670,43 +10388,43 @@
         <v>40</v>
       </c>
       <c r="G154" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="H154" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="I154" t="s">
+        <v>155</v>
+      </c>
+      <c r="J154">
+        <v>40</v>
+      </c>
+      <c r="K154" t="s">
+        <v>233</v>
+      </c>
+      <c r="N154">
+        <v>3</v>
+      </c>
+      <c r="T154">
+        <v>1</v>
+      </c>
+      <c r="U154">
+        <v>25</v>
+      </c>
+      <c r="V154" t="s">
+        <v>45</v>
+      </c>
+      <c r="W154">
+        <v>1</v>
+      </c>
+      <c r="X154">
+        <v>25998807</v>
+      </c>
+      <c r="Y154">
+        <v>5</v>
+      </c>
+      <c r="Z154" t="s">
         <v>240</v>
-      </c>
-      <c r="J154">
-        <v>40</v>
-      </c>
-      <c r="K154" t="s">
-        <v>44</v>
-      </c>
-      <c r="N154">
-        <v>6</v>
-      </c>
-      <c r="T154">
-        <v>1</v>
-      </c>
-      <c r="U154">
-        <v>20</v>
-      </c>
-      <c r="V154" t="s">
-        <v>45</v>
-      </c>
-      <c r="W154">
-        <v>1</v>
-      </c>
-      <c r="X154">
-        <v>25998807</v>
-      </c>
-      <c r="Y154">
-        <v>5</v>
-      </c>
-      <c r="Z154" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="155" spans="1:26" x14ac:dyDescent="0.25">
@@ -10720,7 +10438,7 @@
         <v>36</v>
       </c>
       <c r="D155" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E155" t="s">
         <v>39</v>
@@ -10732,40 +10450,40 @@
         <v>41</v>
       </c>
       <c r="H155" t="s">
+        <v>233</v>
+      </c>
+      <c r="I155" t="s">
+        <v>155</v>
+      </c>
+      <c r="J155">
+        <v>36</v>
+      </c>
+      <c r="K155" t="s">
+        <v>233</v>
+      </c>
+      <c r="N155">
+        <v>2</v>
+      </c>
+      <c r="T155">
+        <v>1</v>
+      </c>
+      <c r="U155">
+        <v>25</v>
+      </c>
+      <c r="V155" t="s">
+        <v>45</v>
+      </c>
+      <c r="W155">
+        <v>1</v>
+      </c>
+      <c r="X155">
+        <v>25998807</v>
+      </c>
+      <c r="Y155">
+        <v>5</v>
+      </c>
+      <c r="Z155" t="s">
         <v>247</v>
-      </c>
-      <c r="I155" t="s">
-        <v>248</v>
-      </c>
-      <c r="J155">
-        <v>40</v>
-      </c>
-      <c r="K155" t="s">
-        <v>247</v>
-      </c>
-      <c r="N155">
-        <v>5</v>
-      </c>
-      <c r="T155">
-        <v>1</v>
-      </c>
-      <c r="U155">
-        <v>15</v>
-      </c>
-      <c r="V155" t="s">
-        <v>45</v>
-      </c>
-      <c r="W155">
-        <v>1</v>
-      </c>
-      <c r="X155">
-        <v>25998807</v>
-      </c>
-      <c r="Y155">
-        <v>5</v>
-      </c>
-      <c r="Z155" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.25">
@@ -10779,7 +10497,7 @@
         <v>36</v>
       </c>
       <c r="D156" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E156" t="s">
         <v>39</v>
@@ -10791,40 +10509,40 @@
         <v>41</v>
       </c>
       <c r="H156" t="s">
+        <v>233</v>
+      </c>
+      <c r="I156" t="s">
+        <v>155</v>
+      </c>
+      <c r="J156">
+        <v>37</v>
+      </c>
+      <c r="K156" t="s">
+        <v>233</v>
+      </c>
+      <c r="N156">
+        <v>3</v>
+      </c>
+      <c r="T156">
+        <v>1</v>
+      </c>
+      <c r="U156">
+        <v>25</v>
+      </c>
+      <c r="V156" t="s">
+        <v>45</v>
+      </c>
+      <c r="W156">
+        <v>1</v>
+      </c>
+      <c r="X156">
+        <v>25998807</v>
+      </c>
+      <c r="Y156">
+        <v>5</v>
+      </c>
+      <c r="Z156" t="s">
         <v>247</v>
-      </c>
-      <c r="I156" t="s">
-        <v>248</v>
-      </c>
-      <c r="J156">
-        <v>41</v>
-      </c>
-      <c r="K156" t="s">
-        <v>247</v>
-      </c>
-      <c r="N156">
-        <v>10</v>
-      </c>
-      <c r="T156">
-        <v>1</v>
-      </c>
-      <c r="U156">
-        <v>15</v>
-      </c>
-      <c r="V156" t="s">
-        <v>45</v>
-      </c>
-      <c r="W156">
-        <v>1</v>
-      </c>
-      <c r="X156">
-        <v>25998807</v>
-      </c>
-      <c r="Y156">
-        <v>5</v>
-      </c>
-      <c r="Z156" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="157" spans="1:26" x14ac:dyDescent="0.25">
@@ -10838,52 +10556,52 @@
         <v>36</v>
       </c>
       <c r="D157" t="s">
+        <v>37</v>
+      </c>
+      <c r="E157" t="s">
+        <v>39</v>
+      </c>
+      <c r="F157" t="s">
+        <v>40</v>
+      </c>
+      <c r="G157" t="s">
+        <v>41</v>
+      </c>
+      <c r="H157" t="s">
+        <v>233</v>
+      </c>
+      <c r="I157" t="s">
+        <v>155</v>
+      </c>
+      <c r="J157">
         <v>38</v>
       </c>
-      <c r="E157" t="s">
-        <v>39</v>
-      </c>
-      <c r="F157" t="s">
-        <v>40</v>
-      </c>
-      <c r="G157" t="s">
-        <v>41</v>
-      </c>
-      <c r="H157" t="s">
+      <c r="K157" t="s">
+        <v>233</v>
+      </c>
+      <c r="N157">
+        <v>3</v>
+      </c>
+      <c r="T157">
+        <v>1</v>
+      </c>
+      <c r="U157">
+        <v>25</v>
+      </c>
+      <c r="V157" t="s">
+        <v>45</v>
+      </c>
+      <c r="W157">
+        <v>1</v>
+      </c>
+      <c r="X157">
+        <v>25998807</v>
+      </c>
+      <c r="Y157">
+        <v>5</v>
+      </c>
+      <c r="Z157" t="s">
         <v>247</v>
-      </c>
-      <c r="I157" t="s">
-        <v>248</v>
-      </c>
-      <c r="J157">
-        <v>42</v>
-      </c>
-      <c r="K157" t="s">
-        <v>247</v>
-      </c>
-      <c r="N157">
-        <v>15</v>
-      </c>
-      <c r="T157">
-        <v>1</v>
-      </c>
-      <c r="U157">
-        <v>15</v>
-      </c>
-      <c r="V157" t="s">
-        <v>45</v>
-      </c>
-      <c r="W157">
-        <v>1</v>
-      </c>
-      <c r="X157">
-        <v>25998807</v>
-      </c>
-      <c r="Y157">
-        <v>5</v>
-      </c>
-      <c r="Z157" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="158" spans="1:26" x14ac:dyDescent="0.25">
@@ -10897,7 +10615,7 @@
         <v>36</v>
       </c>
       <c r="D158" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E158" t="s">
         <v>39</v>
@@ -10909,40 +10627,40 @@
         <v>41</v>
       </c>
       <c r="H158" t="s">
+        <v>233</v>
+      </c>
+      <c r="I158" t="s">
+        <v>155</v>
+      </c>
+      <c r="J158">
+        <v>39</v>
+      </c>
+      <c r="K158" t="s">
+        <v>233</v>
+      </c>
+      <c r="N158">
+        <v>2</v>
+      </c>
+      <c r="T158">
+        <v>1</v>
+      </c>
+      <c r="U158">
+        <v>25</v>
+      </c>
+      <c r="V158" t="s">
+        <v>45</v>
+      </c>
+      <c r="W158">
+        <v>1</v>
+      </c>
+      <c r="X158">
+        <v>25998807</v>
+      </c>
+      <c r="Y158">
+        <v>5</v>
+      </c>
+      <c r="Z158" t="s">
         <v>247</v>
-      </c>
-      <c r="I158" t="s">
-        <v>248</v>
-      </c>
-      <c r="J158">
-        <v>43</v>
-      </c>
-      <c r="K158" t="s">
-        <v>247</v>
-      </c>
-      <c r="N158">
-        <v>20</v>
-      </c>
-      <c r="T158">
-        <v>1</v>
-      </c>
-      <c r="U158">
-        <v>15</v>
-      </c>
-      <c r="V158" t="s">
-        <v>45</v>
-      </c>
-      <c r="W158">
-        <v>1</v>
-      </c>
-      <c r="X158">
-        <v>25998807</v>
-      </c>
-      <c r="Y158">
-        <v>5</v>
-      </c>
-      <c r="Z158" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="159" spans="1:26" x14ac:dyDescent="0.25">
@@ -10956,7 +10674,7 @@
         <v>36</v>
       </c>
       <c r="D159" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E159" t="s">
         <v>39</v>
@@ -10968,54 +10686,54 @@
         <v>41</v>
       </c>
       <c r="H159" t="s">
+        <v>233</v>
+      </c>
+      <c r="I159" t="s">
+        <v>155</v>
+      </c>
+      <c r="J159">
+        <v>40</v>
+      </c>
+      <c r="K159" t="s">
+        <v>233</v>
+      </c>
+      <c r="N159">
+        <v>2</v>
+      </c>
+      <c r="T159">
+        <v>1</v>
+      </c>
+      <c r="U159">
+        <v>25</v>
+      </c>
+      <c r="V159" t="s">
+        <v>45</v>
+      </c>
+      <c r="W159">
+        <v>1</v>
+      </c>
+      <c r="X159">
+        <v>25998807</v>
+      </c>
+      <c r="Y159">
+        <v>5</v>
+      </c>
+      <c r="Z159" t="s">
         <v>247</v>
-      </c>
-      <c r="I159" t="s">
-        <v>248</v>
-      </c>
-      <c r="J159">
-        <v>44</v>
-      </c>
-      <c r="K159" t="s">
-        <v>247</v>
-      </c>
-      <c r="N159">
-        <v>10</v>
-      </c>
-      <c r="T159">
-        <v>1</v>
-      </c>
-      <c r="U159">
-        <v>15</v>
-      </c>
-      <c r="V159" t="s">
-        <v>45</v>
-      </c>
-      <c r="W159">
-        <v>1</v>
-      </c>
-      <c r="X159">
-        <v>25998807</v>
-      </c>
-      <c r="Y159">
-        <v>5</v>
-      </c>
-      <c r="Z159" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="160" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B160" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C160" t="s">
         <v>36</v>
       </c>
       <c r="D160" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E160" t="s">
         <v>39</v>
@@ -11027,54 +10745,54 @@
         <v>41</v>
       </c>
       <c r="H160" t="s">
+        <v>233</v>
+      </c>
+      <c r="I160" t="s">
+        <v>211</v>
+      </c>
+      <c r="J160">
+        <v>36</v>
+      </c>
+      <c r="K160" t="s">
+        <v>233</v>
+      </c>
+      <c r="N160">
+        <v>2</v>
+      </c>
+      <c r="T160">
+        <v>1</v>
+      </c>
+      <c r="U160">
+        <v>25</v>
+      </c>
+      <c r="V160" t="s">
+        <v>45</v>
+      </c>
+      <c r="W160">
+        <v>1</v>
+      </c>
+      <c r="X160">
+        <v>25998807</v>
+      </c>
+      <c r="Y160">
+        <v>5</v>
+      </c>
+      <c r="Z160" t="s">
         <v>247</v>
-      </c>
-      <c r="I160" t="s">
-        <v>168</v>
-      </c>
-      <c r="J160">
-        <v>40</v>
-      </c>
-      <c r="K160" t="s">
-        <v>247</v>
-      </c>
-      <c r="N160">
-        <v>5</v>
-      </c>
-      <c r="T160">
-        <v>1</v>
-      </c>
-      <c r="U160">
-        <v>15</v>
-      </c>
-      <c r="V160" t="s">
-        <v>45</v>
-      </c>
-      <c r="W160">
-        <v>1</v>
-      </c>
-      <c r="X160">
-        <v>25998807</v>
-      </c>
-      <c r="Y160">
-        <v>5</v>
-      </c>
-      <c r="Z160" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="161" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B161" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C161" t="s">
         <v>36</v>
       </c>
       <c r="D161" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E161" t="s">
         <v>39</v>
@@ -11086,113 +10804,113 @@
         <v>41</v>
       </c>
       <c r="H161" t="s">
+        <v>233</v>
+      </c>
+      <c r="I161" t="s">
+        <v>211</v>
+      </c>
+      <c r="J161">
+        <v>37</v>
+      </c>
+      <c r="K161" t="s">
+        <v>233</v>
+      </c>
+      <c r="N161">
+        <v>3</v>
+      </c>
+      <c r="T161">
+        <v>1</v>
+      </c>
+      <c r="U161">
+        <v>25</v>
+      </c>
+      <c r="V161" t="s">
+        <v>45</v>
+      </c>
+      <c r="W161">
+        <v>1</v>
+      </c>
+      <c r="X161">
+        <v>25998807</v>
+      </c>
+      <c r="Y161">
+        <v>5</v>
+      </c>
+      <c r="Z161" t="s">
         <v>247</v>
-      </c>
-      <c r="I161" t="s">
-        <v>168</v>
-      </c>
-      <c r="J161">
-        <v>41</v>
-      </c>
-      <c r="K161" t="s">
-        <v>247</v>
-      </c>
-      <c r="N161">
-        <v>10</v>
-      </c>
-      <c r="T161">
-        <v>1</v>
-      </c>
-      <c r="U161">
-        <v>15</v>
-      </c>
-      <c r="V161" t="s">
-        <v>45</v>
-      </c>
-      <c r="W161">
-        <v>1</v>
-      </c>
-      <c r="X161">
-        <v>25998807</v>
-      </c>
-      <c r="Y161">
-        <v>5</v>
-      </c>
-      <c r="Z161" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="162" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B162" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C162" t="s">
         <v>36</v>
       </c>
       <c r="D162" t="s">
+        <v>37</v>
+      </c>
+      <c r="E162" t="s">
+        <v>39</v>
+      </c>
+      <c r="F162" t="s">
+        <v>40</v>
+      </c>
+      <c r="G162" t="s">
+        <v>41</v>
+      </c>
+      <c r="H162" t="s">
+        <v>233</v>
+      </c>
+      <c r="I162" t="s">
+        <v>211</v>
+      </c>
+      <c r="J162">
         <v>38</v>
       </c>
-      <c r="E162" t="s">
-        <v>39</v>
-      </c>
-      <c r="F162" t="s">
-        <v>40</v>
-      </c>
-      <c r="G162" t="s">
-        <v>41</v>
-      </c>
-      <c r="H162" t="s">
+      <c r="K162" t="s">
+        <v>233</v>
+      </c>
+      <c r="N162">
+        <v>3</v>
+      </c>
+      <c r="T162">
+        <v>1</v>
+      </c>
+      <c r="U162">
+        <v>25</v>
+      </c>
+      <c r="V162" t="s">
+        <v>45</v>
+      </c>
+      <c r="W162">
+        <v>1</v>
+      </c>
+      <c r="X162">
+        <v>25998807</v>
+      </c>
+      <c r="Y162">
+        <v>5</v>
+      </c>
+      <c r="Z162" t="s">
         <v>247</v>
-      </c>
-      <c r="I162" t="s">
-        <v>168</v>
-      </c>
-      <c r="J162">
-        <v>42</v>
-      </c>
-      <c r="K162" t="s">
-        <v>247</v>
-      </c>
-      <c r="N162">
-        <v>15</v>
-      </c>
-      <c r="T162">
-        <v>1</v>
-      </c>
-      <c r="U162">
-        <v>15</v>
-      </c>
-      <c r="V162" t="s">
-        <v>45</v>
-      </c>
-      <c r="W162">
-        <v>1</v>
-      </c>
-      <c r="X162">
-        <v>25998807</v>
-      </c>
-      <c r="Y162">
-        <v>5</v>
-      </c>
-      <c r="Z162" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="163" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>251</v>
+      </c>
+      <c r="B163" t="s">
         <v>253</v>
       </c>
-      <c r="B163" t="s">
-        <v>255</v>
-      </c>
       <c r="C163" t="s">
         <v>36</v>
       </c>
       <c r="D163" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E163" t="s">
         <v>39</v>
@@ -11204,54 +10922,54 @@
         <v>41</v>
       </c>
       <c r="H163" t="s">
+        <v>233</v>
+      </c>
+      <c r="I163" t="s">
+        <v>211</v>
+      </c>
+      <c r="J163">
+        <v>39</v>
+      </c>
+      <c r="K163" t="s">
+        <v>233</v>
+      </c>
+      <c r="N163">
+        <v>2</v>
+      </c>
+      <c r="T163">
+        <v>1</v>
+      </c>
+      <c r="U163">
+        <v>25</v>
+      </c>
+      <c r="V163" t="s">
+        <v>45</v>
+      </c>
+      <c r="W163">
+        <v>1</v>
+      </c>
+      <c r="X163">
+        <v>25998807</v>
+      </c>
+      <c r="Y163">
+        <v>5</v>
+      </c>
+      <c r="Z163" t="s">
         <v>247</v>
-      </c>
-      <c r="I163" t="s">
-        <v>168</v>
-      </c>
-      <c r="J163">
-        <v>43</v>
-      </c>
-      <c r="K163" t="s">
-        <v>247</v>
-      </c>
-      <c r="N163">
-        <v>20</v>
-      </c>
-      <c r="T163">
-        <v>1</v>
-      </c>
-      <c r="U163">
-        <v>15</v>
-      </c>
-      <c r="V163" t="s">
-        <v>45</v>
-      </c>
-      <c r="W163">
-        <v>1</v>
-      </c>
-      <c r="X163">
-        <v>25998807</v>
-      </c>
-      <c r="Y163">
-        <v>5</v>
-      </c>
-      <c r="Z163" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="164" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B164" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C164" t="s">
         <v>36</v>
       </c>
       <c r="D164" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E164" t="s">
         <v>39</v>
@@ -11263,54 +10981,54 @@
         <v>41</v>
       </c>
       <c r="H164" t="s">
+        <v>233</v>
+      </c>
+      <c r="I164" t="s">
+        <v>211</v>
+      </c>
+      <c r="J164">
+        <v>40</v>
+      </c>
+      <c r="K164" t="s">
+        <v>233</v>
+      </c>
+      <c r="N164">
+        <v>2</v>
+      </c>
+      <c r="T164">
+        <v>1</v>
+      </c>
+      <c r="U164">
+        <v>25</v>
+      </c>
+      <c r="V164" t="s">
+        <v>45</v>
+      </c>
+      <c r="W164">
+        <v>1</v>
+      </c>
+      <c r="X164">
+        <v>25998807</v>
+      </c>
+      <c r="Y164">
+        <v>5</v>
+      </c>
+      <c r="Z164" t="s">
         <v>247</v>
-      </c>
-      <c r="I164" t="s">
-        <v>168</v>
-      </c>
-      <c r="J164">
-        <v>44</v>
-      </c>
-      <c r="K164" t="s">
-        <v>247</v>
-      </c>
-      <c r="N164">
-        <v>10</v>
-      </c>
-      <c r="T164">
-        <v>1</v>
-      </c>
-      <c r="U164">
-        <v>15</v>
-      </c>
-      <c r="V164" t="s">
-        <v>45</v>
-      </c>
-      <c r="W164">
-        <v>1</v>
-      </c>
-      <c r="X164">
-        <v>25998807</v>
-      </c>
-      <c r="Y164">
-        <v>5</v>
-      </c>
-      <c r="Z164" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="165" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B165" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C165" t="s">
         <v>36</v>
       </c>
       <c r="D165" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E165" t="s">
         <v>39</v>
@@ -11319,28 +11037,28 @@
         <v>40</v>
       </c>
       <c r="G165" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="H165" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="I165" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="J165">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K165" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="N165">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T165">
         <v>1</v>
       </c>
       <c r="U165">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="V165" t="s">
         <v>45</v>
@@ -11355,21 +11073,21 @@
         <v>5</v>
       </c>
       <c r="Z165" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B166" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C166" t="s">
         <v>36</v>
       </c>
       <c r="D166" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E166" t="s">
         <v>39</v>
@@ -11378,28 +11096,28 @@
         <v>40</v>
       </c>
       <c r="G166" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="H166" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="I166" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="J166">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K166" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="N166">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="T166">
         <v>1</v>
       </c>
       <c r="U166">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="V166" t="s">
         <v>45</v>
@@ -11414,51 +11132,51 @@
         <v>5</v>
       </c>
       <c r="Z166" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B167" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C167" t="s">
         <v>36</v>
       </c>
       <c r="D167" t="s">
+        <v>37</v>
+      </c>
+      <c r="E167" t="s">
+        <v>39</v>
+      </c>
+      <c r="F167" t="s">
+        <v>40</v>
+      </c>
+      <c r="G167" t="s">
+        <v>232</v>
+      </c>
+      <c r="H167" t="s">
+        <v>233</v>
+      </c>
+      <c r="I167" t="s">
+        <v>211</v>
+      </c>
+      <c r="J167">
         <v>38</v>
       </c>
-      <c r="E167" t="s">
-        <v>39</v>
-      </c>
-      <c r="F167" t="s">
-        <v>40</v>
-      </c>
-      <c r="G167" t="s">
-        <v>41</v>
-      </c>
-      <c r="H167" t="s">
-        <v>247</v>
-      </c>
-      <c r="I167" t="s">
-        <v>262</v>
-      </c>
-      <c r="J167">
-        <v>42</v>
-      </c>
       <c r="K167" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="N167">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="T167">
         <v>1</v>
       </c>
       <c r="U167">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="V167" t="s">
         <v>45</v>
@@ -11473,80 +11191,80 @@
         <v>5</v>
       </c>
       <c r="Z167" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>258</v>
+      </c>
+      <c r="B168" t="s">
+        <v>255</v>
+      </c>
+      <c r="C168" t="s">
+        <v>36</v>
+      </c>
+      <c r="D168" t="s">
+        <v>37</v>
+      </c>
+      <c r="E168" t="s">
+        <v>39</v>
+      </c>
+      <c r="F168" t="s">
+        <v>40</v>
+      </c>
+      <c r="G168" t="s">
+        <v>232</v>
+      </c>
+      <c r="H168" t="s">
+        <v>233</v>
+      </c>
+      <c r="I168" t="s">
+        <v>211</v>
+      </c>
+      <c r="J168">
+        <v>39</v>
+      </c>
+      <c r="K168" t="s">
+        <v>233</v>
+      </c>
+      <c r="N168">
+        <v>2</v>
+      </c>
+      <c r="T168">
+        <v>1</v>
+      </c>
+      <c r="U168">
+        <v>25</v>
+      </c>
+      <c r="V168" t="s">
+        <v>45</v>
+      </c>
+      <c r="W168">
+        <v>1</v>
+      </c>
+      <c r="X168">
+        <v>25998807</v>
+      </c>
+      <c r="Y168">
+        <v>5</v>
+      </c>
+      <c r="Z168" t="s">
         <v>260</v>
-      </c>
-      <c r="B168" t="s">
-        <v>257</v>
-      </c>
-      <c r="C168" t="s">
-        <v>36</v>
-      </c>
-      <c r="D168" t="s">
-        <v>38</v>
-      </c>
-      <c r="E168" t="s">
-        <v>39</v>
-      </c>
-      <c r="F168" t="s">
-        <v>40</v>
-      </c>
-      <c r="G168" t="s">
-        <v>41</v>
-      </c>
-      <c r="H168" t="s">
-        <v>247</v>
-      </c>
-      <c r="I168" t="s">
-        <v>262</v>
-      </c>
-      <c r="J168">
-        <v>43</v>
-      </c>
-      <c r="K168" t="s">
-        <v>247</v>
-      </c>
-      <c r="N168">
-        <v>20</v>
-      </c>
-      <c r="T168">
-        <v>1</v>
-      </c>
-      <c r="U168">
-        <v>15</v>
-      </c>
-      <c r="V168" t="s">
-        <v>45</v>
-      </c>
-      <c r="W168">
-        <v>1</v>
-      </c>
-      <c r="X168">
-        <v>25998807</v>
-      </c>
-      <c r="Y168">
-        <v>5</v>
-      </c>
-      <c r="Z168" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="169" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B169" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C169" t="s">
         <v>36</v>
       </c>
       <c r="D169" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E169" t="s">
         <v>39</v>
@@ -11555,28 +11273,28 @@
         <v>40</v>
       </c>
       <c r="G169" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="H169" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="I169" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="J169">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K169" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="N169">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T169">
         <v>1</v>
       </c>
       <c r="U169">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V169" t="s">
         <v>45</v>
@@ -11591,15 +11309,15 @@
         <v>5</v>
       </c>
       <c r="Z169" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B170" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="C170" t="s">
         <v>36</v>
@@ -11614,10 +11332,10 @@
         <v>40</v>
       </c>
       <c r="G170" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="H170" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="I170" t="s">
         <v>155</v>
@@ -11626,16 +11344,16 @@
         <v>36</v>
       </c>
       <c r="K170" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="N170">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T170">
         <v>1</v>
       </c>
       <c r="U170">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V170" t="s">
         <v>45</v>
@@ -11650,15 +11368,15 @@
         <v>5</v>
       </c>
       <c r="Z170" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="171" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B171" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="C171" t="s">
         <v>36</v>
@@ -11673,10 +11391,10 @@
         <v>40</v>
       </c>
       <c r="G171" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="H171" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="I171" t="s">
         <v>155</v>
@@ -11685,16 +11403,16 @@
         <v>37</v>
       </c>
       <c r="K171" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="N171">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="T171">
         <v>1</v>
       </c>
       <c r="U171">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V171" t="s">
         <v>45</v>
@@ -11709,15 +11427,15 @@
         <v>5</v>
       </c>
       <c r="Z171" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="172" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B172" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="C172" t="s">
         <v>36</v>
@@ -11732,10 +11450,10 @@
         <v>40</v>
       </c>
       <c r="G172" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="H172" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="I172" t="s">
         <v>155</v>
@@ -11744,16 +11462,16 @@
         <v>38</v>
       </c>
       <c r="K172" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="N172">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="T172">
         <v>1</v>
       </c>
       <c r="U172">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V172" t="s">
         <v>45</v>
@@ -11768,16 +11486,16 @@
         <v>5</v>
       </c>
       <c r="Z172" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="173" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>264</v>
+      </c>
+      <c r="B173" t="s">
         <v>266</v>
       </c>
-      <c r="B173" t="s">
-        <v>287</v>
-      </c>
       <c r="C173" t="s">
         <v>36</v>
       </c>
@@ -11791,10 +11509,10 @@
         <v>40</v>
       </c>
       <c r="G173" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="H173" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="I173" t="s">
         <v>155</v>
@@ -11803,16 +11521,16 @@
         <v>39</v>
       </c>
       <c r="K173" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="N173">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T173">
         <v>1</v>
       </c>
       <c r="U173">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V173" t="s">
         <v>45</v>
@@ -11827,15 +11545,15 @@
         <v>5</v>
       </c>
       <c r="Z173" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="174" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B174" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="C174" t="s">
         <v>36</v>
@@ -11850,10 +11568,10 @@
         <v>40</v>
       </c>
       <c r="G174" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="H174" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="I174" t="s">
         <v>155</v>
@@ -11862,19 +11580,16 @@
         <v>40</v>
       </c>
       <c r="K174" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="N174">
-        <v>10</v>
-      </c>
-      <c r="O174" t="s">
-        <v>275</v>
+        <v>2</v>
       </c>
       <c r="T174">
         <v>1</v>
       </c>
       <c r="U174">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V174" t="s">
         <v>45</v>
@@ -11889,21 +11604,21 @@
         <v>5</v>
       </c>
       <c r="Z174" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="175" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>267</v>
+      </c>
+      <c r="B175" t="s">
         <v>268</v>
       </c>
-      <c r="B175" t="s">
-        <v>287</v>
-      </c>
       <c r="C175" t="s">
         <v>36</v>
       </c>
       <c r="D175" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E175" t="s">
         <v>39</v>
@@ -11912,28 +11627,28 @@
         <v>40</v>
       </c>
       <c r="G175" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="H175" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="I175" t="s">
-        <v>155</v>
+        <v>269</v>
       </c>
       <c r="J175">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K175" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="N175">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="T175">
         <v>1</v>
       </c>
       <c r="U175">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V175" t="s">
         <v>45</v>
@@ -11948,51 +11663,51 @@
         <v>5</v>
       </c>
       <c r="Z175" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="176" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>274</v>
+      </c>
+      <c r="B176" t="s">
+        <v>268</v>
+      </c>
+      <c r="C176" t="s">
+        <v>36</v>
+      </c>
+      <c r="D176" t="s">
+        <v>37</v>
+      </c>
+      <c r="E176" t="s">
+        <v>39</v>
+      </c>
+      <c r="F176" t="s">
+        <v>40</v>
+      </c>
+      <c r="G176" t="s">
+        <v>232</v>
+      </c>
+      <c r="H176" t="s">
+        <v>233</v>
+      </c>
+      <c r="I176" t="s">
         <v>269</v>
       </c>
-      <c r="B176" t="s">
-        <v>287</v>
-      </c>
-      <c r="C176" t="s">
-        <v>36</v>
-      </c>
-      <c r="D176" t="s">
-        <v>38</v>
-      </c>
-      <c r="E176" t="s">
-        <v>39</v>
-      </c>
-      <c r="F176" t="s">
-        <v>40</v>
-      </c>
-      <c r="G176" t="s">
-        <v>41</v>
-      </c>
-      <c r="H176" t="s">
-        <v>273</v>
-      </c>
-      <c r="I176" t="s">
-        <v>155</v>
-      </c>
       <c r="J176">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K176" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="N176">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="T176">
         <v>1</v>
       </c>
       <c r="U176">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V176" t="s">
         <v>45</v>
@@ -12007,51 +11722,51 @@
         <v>5</v>
       </c>
       <c r="Z176" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B177" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="C177" t="s">
         <v>36</v>
       </c>
       <c r="D177" t="s">
+        <v>37</v>
+      </c>
+      <c r="E177" t="s">
+        <v>39</v>
+      </c>
+      <c r="F177" t="s">
+        <v>40</v>
+      </c>
+      <c r="G177" t="s">
+        <v>232</v>
+      </c>
+      <c r="H177" t="s">
+        <v>233</v>
+      </c>
+      <c r="I177" t="s">
+        <v>269</v>
+      </c>
+      <c r="J177">
         <v>38</v>
       </c>
-      <c r="E177" t="s">
-        <v>39</v>
-      </c>
-      <c r="F177" t="s">
-        <v>40</v>
-      </c>
-      <c r="G177" t="s">
-        <v>41</v>
-      </c>
-      <c r="H177" t="s">
-        <v>273</v>
-      </c>
-      <c r="I177" t="s">
-        <v>155</v>
-      </c>
-      <c r="J177">
-        <v>43</v>
-      </c>
       <c r="K177" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="N177">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="T177">
         <v>1</v>
       </c>
       <c r="U177">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V177" t="s">
         <v>45</v>
@@ -12066,21 +11781,21 @@
         <v>5</v>
       </c>
       <c r="Z177" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B178" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="C178" t="s">
         <v>36</v>
       </c>
       <c r="D178" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E178" t="s">
         <v>39</v>
@@ -12089,28 +11804,28 @@
         <v>40</v>
       </c>
       <c r="G178" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="H178" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="I178" t="s">
-        <v>155</v>
+        <v>269</v>
       </c>
       <c r="J178">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K178" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="N178">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="T178">
         <v>1</v>
       </c>
       <c r="U178">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V178" t="s">
         <v>45</v>
@@ -12125,21 +11840,21 @@
         <v>5</v>
       </c>
       <c r="Z178" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B179" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="C179" t="s">
         <v>36</v>
       </c>
       <c r="D179" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E179" t="s">
         <v>39</v>
@@ -12148,28 +11863,28 @@
         <v>40</v>
       </c>
       <c r="G179" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="H179" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="I179" t="s">
-        <v>155</v>
+        <v>269</v>
       </c>
       <c r="J179">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K179" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="N179">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T179">
         <v>1</v>
       </c>
       <c r="U179">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V179" t="s">
         <v>45</v>
@@ -12184,15 +11899,15 @@
         <v>5</v>
       </c>
       <c r="Z179" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B180" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="C180" t="s">
         <v>36</v>
@@ -12207,28 +11922,28 @@
         <v>40</v>
       </c>
       <c r="G180" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="H180" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="I180" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="J180">
         <v>36</v>
       </c>
       <c r="K180" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="N180">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="T180">
         <v>1</v>
       </c>
       <c r="U180">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V180" t="s">
         <v>45</v>
@@ -12243,15 +11958,15 @@
         <v>5</v>
       </c>
       <c r="Z180" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B181" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="C181" t="s">
         <v>36</v>
@@ -12266,28 +11981,28 @@
         <v>40</v>
       </c>
       <c r="G181" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="H181" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="I181" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="J181">
         <v>37</v>
       </c>
       <c r="K181" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="N181">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="T181">
         <v>1</v>
       </c>
       <c r="U181">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V181" t="s">
         <v>45</v>
@@ -12302,15 +12017,15 @@
         <v>5</v>
       </c>
       <c r="Z181" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B182" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="C182" t="s">
         <v>36</v>
@@ -12325,28 +12040,28 @@
         <v>40</v>
       </c>
       <c r="G182" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="H182" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="I182" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="J182">
         <v>38</v>
       </c>
       <c r="K182" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="N182">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="T182">
         <v>1</v>
       </c>
       <c r="U182">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V182" t="s">
         <v>45</v>
@@ -12361,15 +12076,15 @@
         <v>5</v>
       </c>
       <c r="Z182" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B183" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="C183" t="s">
         <v>36</v>
@@ -12384,28 +12099,28 @@
         <v>40</v>
       </c>
       <c r="G183" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="H183" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="I183" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="J183">
         <v>39</v>
       </c>
       <c r="K183" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="N183">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="T183">
         <v>1</v>
       </c>
       <c r="U183">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V183" t="s">
         <v>45</v>
@@ -12420,15 +12135,15 @@
         <v>5</v>
       </c>
       <c r="Z183" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="B184" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="C184" t="s">
         <v>36</v>
@@ -12443,28 +12158,28 @@
         <v>40</v>
       </c>
       <c r="G184" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="H184" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="I184" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="J184">
         <v>40</v>
       </c>
       <c r="K184" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="N184">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="T184">
         <v>1</v>
       </c>
       <c r="U184">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V184" t="s">
         <v>45</v>
@@ -12479,7 +12194,7 @@
         <v>5</v>
       </c>
       <c r="Z184" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="185" spans="1:26" x14ac:dyDescent="0.25">
@@ -12487,13 +12202,13 @@
         <v>282</v>
       </c>
       <c r="B185" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C185" t="s">
         <v>36</v>
       </c>
       <c r="D185" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E185" t="s">
         <v>39</v>
@@ -12502,28 +12217,28 @@
         <v>40</v>
       </c>
       <c r="G185" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="H185" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="I185" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J185">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K185" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="N185">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="T185">
         <v>1</v>
       </c>
       <c r="U185">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V185" t="s">
         <v>45</v>
@@ -12538,7 +12253,7 @@
         <v>5</v>
       </c>
       <c r="Z185" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.25">
@@ -12546,13 +12261,13 @@
         <v>283</v>
       </c>
       <c r="B186" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C186" t="s">
         <v>36</v>
       </c>
       <c r="D186" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E186" t="s">
         <v>39</v>
@@ -12561,28 +12276,28 @@
         <v>40</v>
       </c>
       <c r="G186" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="H186" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="I186" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J186">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K186" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="N186">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="T186">
         <v>1</v>
       </c>
       <c r="U186">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V186" t="s">
         <v>45</v>
@@ -12597,7 +12312,7 @@
         <v>5</v>
       </c>
       <c r="Z186" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="187" spans="1:26" x14ac:dyDescent="0.25">
@@ -12605,43 +12320,43 @@
         <v>284</v>
       </c>
       <c r="B187" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C187" t="s">
         <v>36</v>
       </c>
       <c r="D187" t="s">
+        <v>37</v>
+      </c>
+      <c r="E187" t="s">
+        <v>39</v>
+      </c>
+      <c r="F187" t="s">
+        <v>40</v>
+      </c>
+      <c r="G187" t="s">
+        <v>232</v>
+      </c>
+      <c r="H187" t="s">
+        <v>233</v>
+      </c>
+      <c r="I187" t="s">
+        <v>287</v>
+      </c>
+      <c r="J187">
         <v>38</v>
       </c>
-      <c r="E187" t="s">
-        <v>39</v>
-      </c>
-      <c r="F187" t="s">
-        <v>40</v>
-      </c>
-      <c r="G187" t="s">
-        <v>41</v>
-      </c>
-      <c r="H187" t="s">
-        <v>273</v>
-      </c>
-      <c r="I187" t="s">
-        <v>289</v>
-      </c>
-      <c r="J187">
-        <v>43</v>
-      </c>
       <c r="K187" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="N187">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="T187">
         <v>1</v>
       </c>
       <c r="U187">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V187" t="s">
         <v>45</v>
@@ -12656,7 +12371,7 @@
         <v>5</v>
       </c>
       <c r="Z187" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.25">
@@ -12664,13 +12379,13 @@
         <v>285</v>
       </c>
       <c r="B188" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C188" t="s">
         <v>36</v>
       </c>
       <c r="D188" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E188" t="s">
         <v>39</v>
@@ -12679,28 +12394,28 @@
         <v>40</v>
       </c>
       <c r="G188" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="H188" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="I188" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J188">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K188" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="N188">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T188">
         <v>1</v>
       </c>
       <c r="U188">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V188" t="s">
         <v>45</v>
@@ -12715,21 +12430,21 @@
         <v>5</v>
       </c>
       <c r="Z188" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="189" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>273</v>
+      </c>
+      <c r="B189" t="s">
         <v>286</v>
       </c>
-      <c r="B189" t="s">
-        <v>288</v>
-      </c>
       <c r="C189" t="s">
         <v>36</v>
       </c>
       <c r="D189" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E189" t="s">
         <v>39</v>
@@ -12738,28 +12453,28 @@
         <v>40</v>
       </c>
       <c r="G189" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="H189" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="I189" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J189">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K189" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="N189">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T189">
         <v>1</v>
       </c>
       <c r="U189">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V189" t="s">
         <v>45</v>
@@ -12774,21 +12489,21 @@
         <v>5</v>
       </c>
       <c r="Z189" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B190" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C190" t="s">
         <v>36</v>
       </c>
       <c r="D190" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E190" t="s">
         <v>39</v>
@@ -12800,25 +12515,25 @@
         <v>41</v>
       </c>
       <c r="H190" t="s">
-        <v>273</v>
+        <v>210</v>
       </c>
       <c r="I190" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J190">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K190" t="s">
-        <v>274</v>
+        <v>210</v>
       </c>
       <c r="N190">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="T190">
         <v>1</v>
       </c>
       <c r="U190">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V190" t="s">
         <v>45</v>
@@ -12833,21 +12548,21 @@
         <v>5</v>
       </c>
       <c r="Z190" t="s">
-        <v>276</v>
+        <v>212</v>
       </c>
     </row>
     <row r="191" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B191" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C191" t="s">
         <v>36</v>
       </c>
       <c r="D191" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E191" t="s">
         <v>39</v>
@@ -12859,25 +12574,25 @@
         <v>41</v>
       </c>
       <c r="H191" t="s">
-        <v>273</v>
+        <v>210</v>
       </c>
       <c r="I191" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J191">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K191" t="s">
-        <v>274</v>
+        <v>210</v>
       </c>
       <c r="N191">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="T191">
         <v>1</v>
       </c>
       <c r="U191">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="V191" t="s">
         <v>45</v>
@@ -12892,21 +12607,21 @@
         <v>5</v>
       </c>
       <c r="Z191" t="s">
-        <v>276</v>
+        <v>212</v>
       </c>
     </row>
     <row r="192" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B192" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C192" t="s">
         <v>36</v>
       </c>
       <c r="D192" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E192" t="s">
         <v>39</v>
@@ -12918,25 +12633,25 @@
         <v>41</v>
       </c>
       <c r="H192" t="s">
-        <v>273</v>
+        <v>210</v>
       </c>
       <c r="I192" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J192">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K192" t="s">
-        <v>274</v>
+        <v>210</v>
       </c>
       <c r="N192">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="T192">
         <v>1</v>
       </c>
       <c r="U192">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="V192" t="s">
         <v>45</v>
@@ -12951,21 +12666,21 @@
         <v>5</v>
       </c>
       <c r="Z192" t="s">
-        <v>276</v>
+        <v>212</v>
       </c>
     </row>
     <row r="193" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B193" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C193" t="s">
         <v>36</v>
       </c>
       <c r="D193" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E193" t="s">
         <v>39</v>
@@ -12977,25 +12692,25 @@
         <v>41</v>
       </c>
       <c r="H193" t="s">
-        <v>273</v>
+        <v>210</v>
       </c>
       <c r="I193" t="s">
+        <v>53</v>
+      </c>
+      <c r="J193">
         <v>43</v>
       </c>
-      <c r="J193">
-        <v>39</v>
-      </c>
       <c r="K193" t="s">
-        <v>274</v>
+        <v>210</v>
       </c>
       <c r="N193">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T193">
         <v>1</v>
       </c>
       <c r="U193">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="V193" t="s">
         <v>45</v>
@@ -13010,21 +12725,21 @@
         <v>5</v>
       </c>
       <c r="Z193" t="s">
-        <v>276</v>
+        <v>212</v>
       </c>
     </row>
     <row r="194" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>292</v>
+      </c>
+      <c r="B194" t="s">
         <v>294</v>
       </c>
-      <c r="B194" t="s">
-        <v>300</v>
-      </c>
       <c r="C194" t="s">
         <v>36</v>
       </c>
       <c r="D194" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E194" t="s">
         <v>39</v>
@@ -13036,25 +12751,25 @@
         <v>41</v>
       </c>
       <c r="H194" t="s">
-        <v>273</v>
+        <v>210</v>
       </c>
       <c r="I194" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J194">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K194" t="s">
-        <v>274</v>
+        <v>210</v>
       </c>
       <c r="N194">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="T194">
         <v>1</v>
       </c>
       <c r="U194">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="V194" t="s">
         <v>45</v>
@@ -13069,15 +12784,15 @@
         <v>5</v>
       </c>
       <c r="Z194" t="s">
-        <v>276</v>
+        <v>212</v>
       </c>
     </row>
     <row r="195" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B195" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C195" t="s">
         <v>36</v>
@@ -13095,25 +12810,25 @@
         <v>41</v>
       </c>
       <c r="H195" t="s">
-        <v>273</v>
+        <v>210</v>
       </c>
       <c r="I195" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J195">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K195" t="s">
-        <v>274</v>
+        <v>210</v>
       </c>
       <c r="N195">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="T195">
         <v>1</v>
       </c>
       <c r="U195">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="V195" t="s">
         <v>45</v>
@@ -13128,4137 +12843,7 @@
         <v>5</v>
       </c>
       <c r="Z195" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>296</v>
-      </c>
-      <c r="B196" t="s">
-        <v>300</v>
-      </c>
-      <c r="C196" t="s">
-        <v>36</v>
-      </c>
-      <c r="D196" t="s">
-        <v>38</v>
-      </c>
-      <c r="E196" t="s">
-        <v>39</v>
-      </c>
-      <c r="F196" t="s">
-        <v>40</v>
-      </c>
-      <c r="G196" t="s">
-        <v>41</v>
-      </c>
-      <c r="H196" t="s">
-        <v>273</v>
-      </c>
-      <c r="I196" t="s">
-        <v>43</v>
-      </c>
-      <c r="J196">
-        <v>42</v>
-      </c>
-      <c r="K196" t="s">
-        <v>274</v>
-      </c>
-      <c r="N196">
-        <v>18</v>
-      </c>
-      <c r="T196">
-        <v>1</v>
-      </c>
-      <c r="U196">
-        <v>20</v>
-      </c>
-      <c r="V196" t="s">
-        <v>45</v>
-      </c>
-      <c r="W196">
-        <v>1</v>
-      </c>
-      <c r="X196">
-        <v>25998807</v>
-      </c>
-      <c r="Y196">
-        <v>5</v>
-      </c>
-      <c r="Z196" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>297</v>
-      </c>
-      <c r="B197" t="s">
-        <v>300</v>
-      </c>
-      <c r="C197" t="s">
-        <v>36</v>
-      </c>
-      <c r="D197" t="s">
-        <v>38</v>
-      </c>
-      <c r="E197" t="s">
-        <v>39</v>
-      </c>
-      <c r="F197" t="s">
-        <v>40</v>
-      </c>
-      <c r="G197" t="s">
-        <v>41</v>
-      </c>
-      <c r="H197" t="s">
-        <v>273</v>
-      </c>
-      <c r="I197" t="s">
-        <v>43</v>
-      </c>
-      <c r="J197">
-        <v>43</v>
-      </c>
-      <c r="K197" t="s">
-        <v>274</v>
-      </c>
-      <c r="N197">
-        <v>18</v>
-      </c>
-      <c r="T197">
-        <v>1</v>
-      </c>
-      <c r="U197">
-        <v>20</v>
-      </c>
-      <c r="V197" t="s">
-        <v>45</v>
-      </c>
-      <c r="W197">
-        <v>1</v>
-      </c>
-      <c r="X197">
-        <v>25998807</v>
-      </c>
-      <c r="Y197">
-        <v>5</v>
-      </c>
-      <c r="Z197" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>298</v>
-      </c>
-      <c r="B198" t="s">
-        <v>300</v>
-      </c>
-      <c r="C198" t="s">
-        <v>36</v>
-      </c>
-      <c r="D198" t="s">
-        <v>38</v>
-      </c>
-      <c r="E198" t="s">
-        <v>39</v>
-      </c>
-      <c r="F198" t="s">
-        <v>40</v>
-      </c>
-      <c r="G198" t="s">
-        <v>41</v>
-      </c>
-      <c r="H198" t="s">
-        <v>273</v>
-      </c>
-      <c r="I198" t="s">
-        <v>43</v>
-      </c>
-      <c r="J198">
-        <v>44</v>
-      </c>
-      <c r="K198" t="s">
-        <v>274</v>
-      </c>
-      <c r="N198">
-        <v>12</v>
-      </c>
-      <c r="T198">
-        <v>1</v>
-      </c>
-      <c r="U198">
-        <v>20</v>
-      </c>
-      <c r="V198" t="s">
-        <v>45</v>
-      </c>
-      <c r="W198">
-        <v>1</v>
-      </c>
-      <c r="X198">
-        <v>25998807</v>
-      </c>
-      <c r="Y198">
-        <v>5</v>
-      </c>
-      <c r="Z198" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>299</v>
-      </c>
-      <c r="B199" t="s">
-        <v>300</v>
-      </c>
-      <c r="C199" t="s">
-        <v>36</v>
-      </c>
-      <c r="D199" t="s">
-        <v>38</v>
-      </c>
-      <c r="E199" t="s">
-        <v>39</v>
-      </c>
-      <c r="F199" t="s">
-        <v>40</v>
-      </c>
-      <c r="G199" t="s">
-        <v>41</v>
-      </c>
-      <c r="H199" t="s">
-        <v>273</v>
-      </c>
-      <c r="I199" t="s">
-        <v>43</v>
-      </c>
-      <c r="J199">
-        <v>45</v>
-      </c>
-      <c r="K199" t="s">
-        <v>274</v>
-      </c>
-      <c r="N199">
-        <v>6</v>
-      </c>
-      <c r="T199">
-        <v>1</v>
-      </c>
-      <c r="U199">
-        <v>20</v>
-      </c>
-      <c r="V199" t="s">
-        <v>45</v>
-      </c>
-      <c r="W199">
-        <v>1</v>
-      </c>
-      <c r="X199">
-        <v>25998807</v>
-      </c>
-      <c r="Y199">
-        <v>5</v>
-      </c>
-      <c r="Z199" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>302</v>
-      </c>
-      <c r="B200" t="s">
-        <v>301</v>
-      </c>
-      <c r="C200" t="s">
-        <v>36</v>
-      </c>
-      <c r="D200" t="s">
-        <v>37</v>
-      </c>
-      <c r="E200" t="s">
-        <v>39</v>
-      </c>
-      <c r="F200" t="s">
-        <v>40</v>
-      </c>
-      <c r="G200" t="s">
-        <v>41</v>
-      </c>
-      <c r="H200" t="s">
-        <v>273</v>
-      </c>
-      <c r="I200" t="s">
-        <v>307</v>
-      </c>
-      <c r="J200">
-        <v>36</v>
-      </c>
-      <c r="K200" t="s">
-        <v>274</v>
-      </c>
-      <c r="N200">
-        <v>12</v>
-      </c>
-      <c r="T200">
-        <v>1</v>
-      </c>
-      <c r="U200">
-        <v>20</v>
-      </c>
-      <c r="V200" t="s">
-        <v>45</v>
-      </c>
-      <c r="W200">
-        <v>1</v>
-      </c>
-      <c r="X200">
-        <v>25998807</v>
-      </c>
-      <c r="Y200">
-        <v>5</v>
-      </c>
-      <c r="Z200" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>303</v>
-      </c>
-      <c r="B201" t="s">
-        <v>301</v>
-      </c>
-      <c r="C201" t="s">
-        <v>36</v>
-      </c>
-      <c r="D201" t="s">
-        <v>37</v>
-      </c>
-      <c r="E201" t="s">
-        <v>39</v>
-      </c>
-      <c r="F201" t="s">
-        <v>40</v>
-      </c>
-      <c r="G201" t="s">
-        <v>41</v>
-      </c>
-      <c r="H201" t="s">
-        <v>273</v>
-      </c>
-      <c r="I201" t="s">
-        <v>307</v>
-      </c>
-      <c r="J201">
-        <v>37</v>
-      </c>
-      <c r="K201" t="s">
-        <v>274</v>
-      </c>
-      <c r="N201">
-        <v>18</v>
-      </c>
-      <c r="T201">
-        <v>1</v>
-      </c>
-      <c r="U201">
-        <v>20</v>
-      </c>
-      <c r="V201" t="s">
-        <v>45</v>
-      </c>
-      <c r="W201">
-        <v>1</v>
-      </c>
-      <c r="X201">
-        <v>25998807</v>
-      </c>
-      <c r="Y201">
-        <v>5</v>
-      </c>
-      <c r="Z201" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>304</v>
-      </c>
-      <c r="B202" t="s">
-        <v>301</v>
-      </c>
-      <c r="C202" t="s">
-        <v>36</v>
-      </c>
-      <c r="D202" t="s">
-        <v>37</v>
-      </c>
-      <c r="E202" t="s">
-        <v>39</v>
-      </c>
-      <c r="F202" t="s">
-        <v>40</v>
-      </c>
-      <c r="G202" t="s">
-        <v>41</v>
-      </c>
-      <c r="H202" t="s">
-        <v>273</v>
-      </c>
-      <c r="I202" t="s">
-        <v>307</v>
-      </c>
-      <c r="J202">
-        <v>38</v>
-      </c>
-      <c r="K202" t="s">
-        <v>274</v>
-      </c>
-      <c r="N202">
-        <v>24</v>
-      </c>
-      <c r="T202">
-        <v>1</v>
-      </c>
-      <c r="U202">
-        <v>20</v>
-      </c>
-      <c r="V202" t="s">
-        <v>45</v>
-      </c>
-      <c r="W202">
-        <v>1</v>
-      </c>
-      <c r="X202">
-        <v>25998807</v>
-      </c>
-      <c r="Y202">
-        <v>5</v>
-      </c>
-      <c r="Z202" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>305</v>
-      </c>
-      <c r="B203" t="s">
-        <v>301</v>
-      </c>
-      <c r="C203" t="s">
-        <v>36</v>
-      </c>
-      <c r="D203" t="s">
-        <v>37</v>
-      </c>
-      <c r="E203" t="s">
-        <v>39</v>
-      </c>
-      <c r="F203" t="s">
-        <v>40</v>
-      </c>
-      <c r="G203" t="s">
-        <v>41</v>
-      </c>
-      <c r="H203" t="s">
-        <v>273</v>
-      </c>
-      <c r="I203" t="s">
-        <v>307</v>
-      </c>
-      <c r="J203">
-        <v>39</v>
-      </c>
-      <c r="K203" t="s">
-        <v>274</v>
-      </c>
-      <c r="N203">
-        <v>12</v>
-      </c>
-      <c r="T203">
-        <v>1</v>
-      </c>
-      <c r="U203">
-        <v>20</v>
-      </c>
-      <c r="V203" t="s">
-        <v>45</v>
-      </c>
-      <c r="W203">
-        <v>1</v>
-      </c>
-      <c r="X203">
-        <v>25998807</v>
-      </c>
-      <c r="Y203">
-        <v>5</v>
-      </c>
-      <c r="Z203" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="204" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>306</v>
-      </c>
-      <c r="B204" t="s">
-        <v>301</v>
-      </c>
-      <c r="C204" t="s">
-        <v>36</v>
-      </c>
-      <c r="D204" t="s">
-        <v>37</v>
-      </c>
-      <c r="E204" t="s">
-        <v>39</v>
-      </c>
-      <c r="F204" t="s">
-        <v>40</v>
-      </c>
-      <c r="G204" t="s">
-        <v>41</v>
-      </c>
-      <c r="H204" t="s">
-        <v>273</v>
-      </c>
-      <c r="I204" t="s">
-        <v>307</v>
-      </c>
-      <c r="J204">
-        <v>40</v>
-      </c>
-      <c r="K204" t="s">
-        <v>274</v>
-      </c>
-      <c r="N204">
-        <v>6</v>
-      </c>
-      <c r="T204">
-        <v>1</v>
-      </c>
-      <c r="U204">
-        <v>20</v>
-      </c>
-      <c r="V204" t="s">
-        <v>45</v>
-      </c>
-      <c r="W204">
-        <v>1</v>
-      </c>
-      <c r="X204">
-        <v>25998807</v>
-      </c>
-      <c r="Y204">
-        <v>5</v>
-      </c>
-      <c r="Z204" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>308</v>
-      </c>
-      <c r="B205" t="s">
-        <v>318</v>
-      </c>
-      <c r="C205" t="s">
-        <v>36</v>
-      </c>
-      <c r="D205" t="s">
-        <v>37</v>
-      </c>
-      <c r="E205" t="s">
-        <v>39</v>
-      </c>
-      <c r="F205" t="s">
-        <v>40</v>
-      </c>
-      <c r="G205" t="s">
-        <v>41</v>
-      </c>
-      <c r="H205" t="s">
-        <v>273</v>
-      </c>
-      <c r="I205" t="s">
-        <v>319</v>
-      </c>
-      <c r="J205">
-        <v>36</v>
-      </c>
-      <c r="K205" t="s">
-        <v>274</v>
-      </c>
-      <c r="N205">
-        <v>12</v>
-      </c>
-      <c r="T205">
-        <v>1</v>
-      </c>
-      <c r="U205">
-        <v>20</v>
-      </c>
-      <c r="V205" t="s">
-        <v>45</v>
-      </c>
-      <c r="W205">
-        <v>1</v>
-      </c>
-      <c r="X205">
-        <v>25998807</v>
-      </c>
-      <c r="Y205">
-        <v>5</v>
-      </c>
-      <c r="Z205" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>309</v>
-      </c>
-      <c r="B206" t="s">
-        <v>318</v>
-      </c>
-      <c r="C206" t="s">
-        <v>36</v>
-      </c>
-      <c r="D206" t="s">
-        <v>37</v>
-      </c>
-      <c r="E206" t="s">
-        <v>39</v>
-      </c>
-      <c r="F206" t="s">
-        <v>40</v>
-      </c>
-      <c r="G206" t="s">
-        <v>41</v>
-      </c>
-      <c r="H206" t="s">
-        <v>273</v>
-      </c>
-      <c r="I206" t="s">
-        <v>319</v>
-      </c>
-      <c r="J206">
-        <v>37</v>
-      </c>
-      <c r="K206" t="s">
-        <v>274</v>
-      </c>
-      <c r="N206">
-        <v>18</v>
-      </c>
-      <c r="T206">
-        <v>1</v>
-      </c>
-      <c r="U206">
-        <v>20</v>
-      </c>
-      <c r="V206" t="s">
-        <v>45</v>
-      </c>
-      <c r="W206">
-        <v>1</v>
-      </c>
-      <c r="X206">
-        <v>25998807</v>
-      </c>
-      <c r="Y206">
-        <v>5</v>
-      </c>
-      <c r="Z206" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>310</v>
-      </c>
-      <c r="B207" t="s">
-        <v>318</v>
-      </c>
-      <c r="C207" t="s">
-        <v>36</v>
-      </c>
-      <c r="D207" t="s">
-        <v>37</v>
-      </c>
-      <c r="E207" t="s">
-        <v>39</v>
-      </c>
-      <c r="F207" t="s">
-        <v>40</v>
-      </c>
-      <c r="G207" t="s">
-        <v>41</v>
-      </c>
-      <c r="H207" t="s">
-        <v>273</v>
-      </c>
-      <c r="I207" t="s">
-        <v>319</v>
-      </c>
-      <c r="J207">
-        <v>38</v>
-      </c>
-      <c r="K207" t="s">
-        <v>274</v>
-      </c>
-      <c r="N207">
-        <v>24</v>
-      </c>
-      <c r="T207">
-        <v>1</v>
-      </c>
-      <c r="U207">
-        <v>20</v>
-      </c>
-      <c r="V207" t="s">
-        <v>45</v>
-      </c>
-      <c r="W207">
-        <v>1</v>
-      </c>
-      <c r="X207">
-        <v>25998807</v>
-      </c>
-      <c r="Y207">
-        <v>5</v>
-      </c>
-      <c r="Z207" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>311</v>
-      </c>
-      <c r="B208" t="s">
-        <v>318</v>
-      </c>
-      <c r="C208" t="s">
-        <v>36</v>
-      </c>
-      <c r="D208" t="s">
-        <v>37</v>
-      </c>
-      <c r="E208" t="s">
-        <v>39</v>
-      </c>
-      <c r="F208" t="s">
-        <v>40</v>
-      </c>
-      <c r="G208" t="s">
-        <v>41</v>
-      </c>
-      <c r="H208" t="s">
-        <v>273</v>
-      </c>
-      <c r="I208" t="s">
-        <v>319</v>
-      </c>
-      <c r="J208">
-        <v>39</v>
-      </c>
-      <c r="K208" t="s">
-        <v>274</v>
-      </c>
-      <c r="N208">
-        <v>13</v>
-      </c>
-      <c r="T208">
-        <v>1</v>
-      </c>
-      <c r="U208">
-        <v>20</v>
-      </c>
-      <c r="V208" t="s">
-        <v>45</v>
-      </c>
-      <c r="W208">
-        <v>1</v>
-      </c>
-      <c r="X208">
-        <v>25998807</v>
-      </c>
-      <c r="Y208">
-        <v>5</v>
-      </c>
-      <c r="Z208" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="209" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>312</v>
-      </c>
-      <c r="B209" t="s">
-        <v>318</v>
-      </c>
-      <c r="C209" t="s">
-        <v>36</v>
-      </c>
-      <c r="D209" t="s">
-        <v>37</v>
-      </c>
-      <c r="E209" t="s">
-        <v>39</v>
-      </c>
-      <c r="F209" t="s">
-        <v>40</v>
-      </c>
-      <c r="G209" t="s">
-        <v>41</v>
-      </c>
-      <c r="H209" t="s">
-        <v>273</v>
-      </c>
-      <c r="I209" t="s">
-        <v>319</v>
-      </c>
-      <c r="J209">
-        <v>40</v>
-      </c>
-      <c r="K209" t="s">
-        <v>274</v>
-      </c>
-      <c r="N209">
-        <v>11</v>
-      </c>
-      <c r="T209">
-        <v>1</v>
-      </c>
-      <c r="U209">
-        <v>20</v>
-      </c>
-      <c r="V209" t="s">
-        <v>45</v>
-      </c>
-      <c r="W209">
-        <v>1</v>
-      </c>
-      <c r="X209">
-        <v>25998807</v>
-      </c>
-      <c r="Y209">
-        <v>5</v>
-      </c>
-      <c r="Z209" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="210" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>313</v>
-      </c>
-      <c r="B210" t="s">
-        <v>318</v>
-      </c>
-      <c r="C210" t="s">
-        <v>36</v>
-      </c>
-      <c r="D210" t="s">
-        <v>38</v>
-      </c>
-      <c r="E210" t="s">
-        <v>39</v>
-      </c>
-      <c r="F210" t="s">
-        <v>40</v>
-      </c>
-      <c r="G210" t="s">
-        <v>41</v>
-      </c>
-      <c r="H210" t="s">
-        <v>273</v>
-      </c>
-      <c r="I210" t="s">
-        <v>319</v>
-      </c>
-      <c r="J210">
-        <v>41</v>
-      </c>
-      <c r="K210" t="s">
-        <v>274</v>
-      </c>
-      <c r="N210">
-        <v>12</v>
-      </c>
-      <c r="T210">
-        <v>1</v>
-      </c>
-      <c r="U210">
-        <v>20</v>
-      </c>
-      <c r="V210" t="s">
-        <v>45</v>
-      </c>
-      <c r="W210">
-        <v>1</v>
-      </c>
-      <c r="X210">
-        <v>25998807</v>
-      </c>
-      <c r="Y210">
-        <v>5</v>
-      </c>
-      <c r="Z210" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="211" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>314</v>
-      </c>
-      <c r="B211" t="s">
-        <v>318</v>
-      </c>
-      <c r="C211" t="s">
-        <v>36</v>
-      </c>
-      <c r="D211" t="s">
-        <v>38</v>
-      </c>
-      <c r="E211" t="s">
-        <v>39</v>
-      </c>
-      <c r="F211" t="s">
-        <v>40</v>
-      </c>
-      <c r="G211" t="s">
-        <v>41</v>
-      </c>
-      <c r="H211" t="s">
-        <v>273</v>
-      </c>
-      <c r="I211" t="s">
-        <v>319</v>
-      </c>
-      <c r="J211">
-        <v>42</v>
-      </c>
-      <c r="K211" t="s">
-        <v>274</v>
-      </c>
-      <c r="N211">
-        <v>19</v>
-      </c>
-      <c r="T211">
-        <v>1</v>
-      </c>
-      <c r="U211">
-        <v>20</v>
-      </c>
-      <c r="V211" t="s">
-        <v>45</v>
-      </c>
-      <c r="W211">
-        <v>1</v>
-      </c>
-      <c r="X211">
-        <v>25998807</v>
-      </c>
-      <c r="Y211">
-        <v>5</v>
-      </c>
-      <c r="Z211" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="212" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>315</v>
-      </c>
-      <c r="B212" t="s">
-        <v>318</v>
-      </c>
-      <c r="C212" t="s">
-        <v>36</v>
-      </c>
-      <c r="D212" t="s">
-        <v>38</v>
-      </c>
-      <c r="E212" t="s">
-        <v>39</v>
-      </c>
-      <c r="F212" t="s">
-        <v>40</v>
-      </c>
-      <c r="G212" t="s">
-        <v>41</v>
-      </c>
-      <c r="H212" t="s">
-        <v>273</v>
-      </c>
-      <c r="I212" t="s">
-        <v>319</v>
-      </c>
-      <c r="J212">
-        <v>43</v>
-      </c>
-      <c r="K212" t="s">
-        <v>274</v>
-      </c>
-      <c r="N212">
-        <v>17</v>
-      </c>
-      <c r="T212">
-        <v>1</v>
-      </c>
-      <c r="U212">
-        <v>20</v>
-      </c>
-      <c r="V212" t="s">
-        <v>45</v>
-      </c>
-      <c r="W212">
-        <v>1</v>
-      </c>
-      <c r="X212">
-        <v>25998807</v>
-      </c>
-      <c r="Y212">
-        <v>5</v>
-      </c>
-      <c r="Z212" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="213" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>316</v>
-      </c>
-      <c r="B213" t="s">
-        <v>318</v>
-      </c>
-      <c r="C213" t="s">
-        <v>36</v>
-      </c>
-      <c r="D213" t="s">
-        <v>38</v>
-      </c>
-      <c r="E213" t="s">
-        <v>39</v>
-      </c>
-      <c r="F213" t="s">
-        <v>40</v>
-      </c>
-      <c r="G213" t="s">
-        <v>41</v>
-      </c>
-      <c r="H213" t="s">
-        <v>273</v>
-      </c>
-      <c r="I213" t="s">
-        <v>319</v>
-      </c>
-      <c r="J213">
-        <v>44</v>
-      </c>
-      <c r="K213" t="s">
-        <v>274</v>
-      </c>
-      <c r="N213">
-        <v>12</v>
-      </c>
-      <c r="T213">
-        <v>1</v>
-      </c>
-      <c r="U213">
-        <v>20</v>
-      </c>
-      <c r="V213" t="s">
-        <v>45</v>
-      </c>
-      <c r="W213">
-        <v>1</v>
-      </c>
-      <c r="X213">
-        <v>25998807</v>
-      </c>
-      <c r="Y213">
-        <v>5</v>
-      </c>
-      <c r="Z213" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="214" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>317</v>
-      </c>
-      <c r="B214" t="s">
-        <v>318</v>
-      </c>
-      <c r="C214" t="s">
-        <v>36</v>
-      </c>
-      <c r="D214" t="s">
-        <v>38</v>
-      </c>
-      <c r="E214" t="s">
-        <v>39</v>
-      </c>
-      <c r="F214" t="s">
-        <v>40</v>
-      </c>
-      <c r="G214" t="s">
-        <v>41</v>
-      </c>
-      <c r="H214" t="s">
-        <v>273</v>
-      </c>
-      <c r="I214" t="s">
-        <v>319</v>
-      </c>
-      <c r="J214">
-        <v>45</v>
-      </c>
-      <c r="K214" t="s">
-        <v>274</v>
-      </c>
-      <c r="N214">
-        <v>6</v>
-      </c>
-      <c r="T214">
-        <v>1</v>
-      </c>
-      <c r="U214">
-        <v>20</v>
-      </c>
-      <c r="V214" t="s">
-        <v>45</v>
-      </c>
-      <c r="W214">
-        <v>1</v>
-      </c>
-      <c r="X214">
-        <v>25998807</v>
-      </c>
-      <c r="Y214">
-        <v>5</v>
-      </c>
-      <c r="Z214" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="215" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>320</v>
-      </c>
-      <c r="B215" t="s">
-        <v>325</v>
-      </c>
-      <c r="C215" t="s">
-        <v>36</v>
-      </c>
-      <c r="D215" t="s">
-        <v>37</v>
-      </c>
-      <c r="E215" t="s">
-        <v>39</v>
-      </c>
-      <c r="F215" t="s">
-        <v>40</v>
-      </c>
-      <c r="G215" t="s">
-        <v>326</v>
-      </c>
-      <c r="H215" t="s">
-        <v>327</v>
-      </c>
-      <c r="I215" t="s">
-        <v>248</v>
-      </c>
-      <c r="J215">
-        <v>36</v>
-      </c>
-      <c r="K215" t="s">
-        <v>327</v>
-      </c>
-      <c r="N215">
-        <v>12</v>
-      </c>
-      <c r="T215">
-        <v>1</v>
-      </c>
-      <c r="U215">
-        <v>25</v>
-      </c>
-      <c r="V215" t="s">
-        <v>45</v>
-      </c>
-      <c r="W215">
-        <v>1</v>
-      </c>
-      <c r="X215">
-        <v>25998807</v>
-      </c>
-      <c r="Y215">
-        <v>5</v>
-      </c>
-      <c r="Z215" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="216" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>321</v>
-      </c>
-      <c r="B216" t="s">
-        <v>325</v>
-      </c>
-      <c r="C216" t="s">
-        <v>36</v>
-      </c>
-      <c r="D216" t="s">
-        <v>37</v>
-      </c>
-      <c r="E216" t="s">
-        <v>39</v>
-      </c>
-      <c r="F216" t="s">
-        <v>40</v>
-      </c>
-      <c r="G216" t="s">
-        <v>326</v>
-      </c>
-      <c r="H216" t="s">
-        <v>327</v>
-      </c>
-      <c r="I216" t="s">
-        <v>248</v>
-      </c>
-      <c r="J216">
-        <v>37</v>
-      </c>
-      <c r="K216" t="s">
-        <v>327</v>
-      </c>
-      <c r="N216">
-        <v>16</v>
-      </c>
-      <c r="T216">
-        <v>1</v>
-      </c>
-      <c r="U216">
-        <v>25</v>
-      </c>
-      <c r="V216" t="s">
-        <v>45</v>
-      </c>
-      <c r="W216">
-        <v>1</v>
-      </c>
-      <c r="X216">
-        <v>25998807</v>
-      </c>
-      <c r="Y216">
-        <v>5</v>
-      </c>
-      <c r="Z216" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="217" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>322</v>
-      </c>
-      <c r="B217" t="s">
-        <v>325</v>
-      </c>
-      <c r="C217" t="s">
-        <v>36</v>
-      </c>
-      <c r="D217" t="s">
-        <v>37</v>
-      </c>
-      <c r="E217" t="s">
-        <v>39</v>
-      </c>
-      <c r="F217" t="s">
-        <v>40</v>
-      </c>
-      <c r="G217" t="s">
-        <v>326</v>
-      </c>
-      <c r="H217" t="s">
-        <v>327</v>
-      </c>
-      <c r="I217" t="s">
-        <v>248</v>
-      </c>
-      <c r="J217">
-        <v>38</v>
-      </c>
-      <c r="K217" t="s">
-        <v>327</v>
-      </c>
-      <c r="N217">
-        <v>20</v>
-      </c>
-      <c r="T217">
-        <v>1</v>
-      </c>
-      <c r="U217">
-        <v>25</v>
-      </c>
-      <c r="V217" t="s">
-        <v>45</v>
-      </c>
-      <c r="W217">
-        <v>1</v>
-      </c>
-      <c r="X217">
-        <v>25998807</v>
-      </c>
-      <c r="Y217">
-        <v>5</v>
-      </c>
-      <c r="Z217" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="218" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>323</v>
-      </c>
-      <c r="B218" t="s">
-        <v>325</v>
-      </c>
-      <c r="C218" t="s">
-        <v>36</v>
-      </c>
-      <c r="D218" t="s">
-        <v>37</v>
-      </c>
-      <c r="E218" t="s">
-        <v>39</v>
-      </c>
-      <c r="F218" t="s">
-        <v>40</v>
-      </c>
-      <c r="G218" t="s">
-        <v>326</v>
-      </c>
-      <c r="H218" t="s">
-        <v>327</v>
-      </c>
-      <c r="I218" t="s">
-        <v>248</v>
-      </c>
-      <c r="J218">
-        <v>39</v>
-      </c>
-      <c r="K218" t="s">
-        <v>327</v>
-      </c>
-      <c r="N218">
-        <v>20</v>
-      </c>
-      <c r="T218">
-        <v>1</v>
-      </c>
-      <c r="U218">
-        <v>25</v>
-      </c>
-      <c r="V218" t="s">
-        <v>45</v>
-      </c>
-      <c r="W218">
-        <v>1</v>
-      </c>
-      <c r="X218">
-        <v>25998807</v>
-      </c>
-      <c r="Y218">
-        <v>5</v>
-      </c>
-      <c r="Z218" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="219" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>324</v>
-      </c>
-      <c r="B219" t="s">
-        <v>325</v>
-      </c>
-      <c r="C219" t="s">
-        <v>36</v>
-      </c>
-      <c r="D219" t="s">
-        <v>37</v>
-      </c>
-      <c r="E219" t="s">
-        <v>39</v>
-      </c>
-      <c r="F219" t="s">
-        <v>40</v>
-      </c>
-      <c r="G219" t="s">
-        <v>326</v>
-      </c>
-      <c r="H219" t="s">
-        <v>327</v>
-      </c>
-      <c r="I219" t="s">
-        <v>248</v>
-      </c>
-      <c r="J219">
-        <v>40</v>
-      </c>
-      <c r="K219" t="s">
-        <v>327</v>
-      </c>
-      <c r="N219">
-        <v>12</v>
-      </c>
-      <c r="T219">
-        <v>1</v>
-      </c>
-      <c r="U219">
-        <v>25</v>
-      </c>
-      <c r="V219" t="s">
-        <v>45</v>
-      </c>
-      <c r="W219">
-        <v>1</v>
-      </c>
-      <c r="X219">
-        <v>25998807</v>
-      </c>
-      <c r="Y219">
-        <v>5</v>
-      </c>
-      <c r="Z219" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="220" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>328</v>
-      </c>
-      <c r="B220" t="s">
-        <v>333</v>
-      </c>
-      <c r="C220" t="s">
-        <v>36</v>
-      </c>
-      <c r="D220" t="s">
-        <v>37</v>
-      </c>
-      <c r="E220" t="s">
-        <v>39</v>
-      </c>
-      <c r="F220" t="s">
-        <v>40</v>
-      </c>
-      <c r="G220" t="s">
-        <v>326</v>
-      </c>
-      <c r="H220" t="s">
-        <v>327</v>
-      </c>
-      <c r="I220" t="s">
-        <v>155</v>
-      </c>
-      <c r="J220">
-        <v>36</v>
-      </c>
-      <c r="K220" t="s">
-        <v>327</v>
-      </c>
-      <c r="N220">
-        <v>6</v>
-      </c>
-      <c r="T220">
-        <v>1</v>
-      </c>
-      <c r="U220">
-        <v>25</v>
-      </c>
-      <c r="V220" t="s">
-        <v>45</v>
-      </c>
-      <c r="W220">
-        <v>1</v>
-      </c>
-      <c r="X220">
-        <v>25998807</v>
-      </c>
-      <c r="Y220">
-        <v>5</v>
-      </c>
-      <c r="Z220" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="221" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>329</v>
-      </c>
-      <c r="B221" t="s">
-        <v>333</v>
-      </c>
-      <c r="C221" t="s">
-        <v>36</v>
-      </c>
-      <c r="D221" t="s">
-        <v>37</v>
-      </c>
-      <c r="E221" t="s">
-        <v>39</v>
-      </c>
-      <c r="F221" t="s">
-        <v>40</v>
-      </c>
-      <c r="G221" t="s">
-        <v>326</v>
-      </c>
-      <c r="H221" t="s">
-        <v>327</v>
-      </c>
-      <c r="I221" t="s">
-        <v>155</v>
-      </c>
-      <c r="J221">
-        <v>37</v>
-      </c>
-      <c r="K221" t="s">
-        <v>327</v>
-      </c>
-      <c r="N221">
-        <v>8</v>
-      </c>
-      <c r="T221">
-        <v>1</v>
-      </c>
-      <c r="U221">
-        <v>25</v>
-      </c>
-      <c r="V221" t="s">
-        <v>45</v>
-      </c>
-      <c r="W221">
-        <v>1</v>
-      </c>
-      <c r="X221">
-        <v>25998807</v>
-      </c>
-      <c r="Y221">
-        <v>5</v>
-      </c>
-      <c r="Z221" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="222" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>330</v>
-      </c>
-      <c r="B222" t="s">
-        <v>333</v>
-      </c>
-      <c r="C222" t="s">
-        <v>36</v>
-      </c>
-      <c r="D222" t="s">
-        <v>37</v>
-      </c>
-      <c r="E222" t="s">
-        <v>39</v>
-      </c>
-      <c r="F222" t="s">
-        <v>40</v>
-      </c>
-      <c r="G222" t="s">
-        <v>326</v>
-      </c>
-      <c r="H222" t="s">
-        <v>327</v>
-      </c>
-      <c r="I222" t="s">
-        <v>155</v>
-      </c>
-      <c r="J222">
-        <v>38</v>
-      </c>
-      <c r="K222" t="s">
-        <v>327</v>
-      </c>
-      <c r="N222">
-        <v>5</v>
-      </c>
-      <c r="T222">
-        <v>1</v>
-      </c>
-      <c r="U222">
-        <v>25</v>
-      </c>
-      <c r="V222" t="s">
-        <v>45</v>
-      </c>
-      <c r="W222">
-        <v>1</v>
-      </c>
-      <c r="X222">
-        <v>25998807</v>
-      </c>
-      <c r="Y222">
-        <v>5</v>
-      </c>
-      <c r="Z222" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="223" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>331</v>
-      </c>
-      <c r="B223" t="s">
-        <v>333</v>
-      </c>
-      <c r="C223" t="s">
-        <v>36</v>
-      </c>
-      <c r="D223" t="s">
-        <v>37</v>
-      </c>
-      <c r="E223" t="s">
-        <v>39</v>
-      </c>
-      <c r="F223" t="s">
-        <v>40</v>
-      </c>
-      <c r="G223" t="s">
-        <v>326</v>
-      </c>
-      <c r="H223" t="s">
-        <v>327</v>
-      </c>
-      <c r="I223" t="s">
-        <v>155</v>
-      </c>
-      <c r="J223">
-        <v>39</v>
-      </c>
-      <c r="K223" t="s">
-        <v>327</v>
-      </c>
-      <c r="N223">
-        <v>10</v>
-      </c>
-      <c r="T223">
-        <v>1</v>
-      </c>
-      <c r="U223">
-        <v>25</v>
-      </c>
-      <c r="V223" t="s">
-        <v>45</v>
-      </c>
-      <c r="W223">
-        <v>1</v>
-      </c>
-      <c r="X223">
-        <v>25998807</v>
-      </c>
-      <c r="Y223">
-        <v>5</v>
-      </c>
-      <c r="Z223" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="224" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>332</v>
-      </c>
-      <c r="B224" t="s">
-        <v>333</v>
-      </c>
-      <c r="C224" t="s">
-        <v>36</v>
-      </c>
-      <c r="D224" t="s">
-        <v>37</v>
-      </c>
-      <c r="E224" t="s">
-        <v>39</v>
-      </c>
-      <c r="F224" t="s">
-        <v>40</v>
-      </c>
-      <c r="G224" t="s">
-        <v>326</v>
-      </c>
-      <c r="H224" t="s">
-        <v>327</v>
-      </c>
-      <c r="I224" t="s">
-        <v>155</v>
-      </c>
-      <c r="J224">
-        <v>40</v>
-      </c>
-      <c r="K224" t="s">
-        <v>327</v>
-      </c>
-      <c r="N224">
-        <v>6</v>
-      </c>
-      <c r="T224">
-        <v>1</v>
-      </c>
-      <c r="U224">
-        <v>25</v>
-      </c>
-      <c r="V224" t="s">
-        <v>45</v>
-      </c>
-      <c r="W224">
-        <v>1</v>
-      </c>
-      <c r="X224">
-        <v>25998807</v>
-      </c>
-      <c r="Y224">
-        <v>5</v>
-      </c>
-      <c r="Z224" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="225" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>335</v>
-      </c>
-      <c r="B225" t="s">
-        <v>340</v>
-      </c>
-      <c r="C225" t="s">
-        <v>36</v>
-      </c>
-      <c r="D225" t="s">
-        <v>37</v>
-      </c>
-      <c r="E225" t="s">
-        <v>39</v>
-      </c>
-      <c r="F225" t="s">
-        <v>40</v>
-      </c>
-      <c r="G225" t="s">
-        <v>41</v>
-      </c>
-      <c r="H225" t="s">
-        <v>327</v>
-      </c>
-      <c r="I225" t="s">
-        <v>155</v>
-      </c>
-      <c r="J225">
-        <v>36</v>
-      </c>
-      <c r="K225" t="s">
-        <v>327</v>
-      </c>
-      <c r="N225">
-        <v>8</v>
-      </c>
-      <c r="T225">
-        <v>1</v>
-      </c>
-      <c r="U225">
-        <v>25</v>
-      </c>
-      <c r="V225" t="s">
-        <v>45</v>
-      </c>
-      <c r="W225">
-        <v>1</v>
-      </c>
-      <c r="X225">
-        <v>25998807</v>
-      </c>
-      <c r="Y225">
-        <v>5</v>
-      </c>
-      <c r="Z225" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="226" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>336</v>
-      </c>
-      <c r="B226" t="s">
-        <v>340</v>
-      </c>
-      <c r="C226" t="s">
-        <v>36</v>
-      </c>
-      <c r="D226" t="s">
-        <v>37</v>
-      </c>
-      <c r="E226" t="s">
-        <v>39</v>
-      </c>
-      <c r="F226" t="s">
-        <v>40</v>
-      </c>
-      <c r="G226" t="s">
-        <v>41</v>
-      </c>
-      <c r="H226" t="s">
-        <v>327</v>
-      </c>
-      <c r="I226" t="s">
-        <v>155</v>
-      </c>
-      <c r="J226">
-        <v>37</v>
-      </c>
-      <c r="K226" t="s">
-        <v>327</v>
-      </c>
-      <c r="N226">
-        <v>12</v>
-      </c>
-      <c r="T226">
-        <v>1</v>
-      </c>
-      <c r="U226">
-        <v>25</v>
-      </c>
-      <c r="V226" t="s">
-        <v>45</v>
-      </c>
-      <c r="W226">
-        <v>1</v>
-      </c>
-      <c r="X226">
-        <v>25998807</v>
-      </c>
-      <c r="Y226">
-        <v>5</v>
-      </c>
-      <c r="Z226" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="227" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>337</v>
-      </c>
-      <c r="B227" t="s">
-        <v>340</v>
-      </c>
-      <c r="C227" t="s">
-        <v>36</v>
-      </c>
-      <c r="D227" t="s">
-        <v>37</v>
-      </c>
-      <c r="E227" t="s">
-        <v>39</v>
-      </c>
-      <c r="F227" t="s">
-        <v>40</v>
-      </c>
-      <c r="G227" t="s">
-        <v>41</v>
-      </c>
-      <c r="H227" t="s">
-        <v>327</v>
-      </c>
-      <c r="I227" t="s">
-        <v>155</v>
-      </c>
-      <c r="J227">
-        <v>38</v>
-      </c>
-      <c r="K227" t="s">
-        <v>327</v>
-      </c>
-      <c r="N227">
-        <v>12</v>
-      </c>
-      <c r="T227">
-        <v>1</v>
-      </c>
-      <c r="U227">
-        <v>25</v>
-      </c>
-      <c r="V227" t="s">
-        <v>45</v>
-      </c>
-      <c r="W227">
-        <v>1</v>
-      </c>
-      <c r="X227">
-        <v>25998807</v>
-      </c>
-      <c r="Y227">
-        <v>5</v>
-      </c>
-      <c r="Z227" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="228" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>338</v>
-      </c>
-      <c r="B228" t="s">
-        <v>340</v>
-      </c>
-      <c r="C228" t="s">
-        <v>36</v>
-      </c>
-      <c r="D228" t="s">
-        <v>37</v>
-      </c>
-      <c r="E228" t="s">
-        <v>39</v>
-      </c>
-      <c r="F228" t="s">
-        <v>40</v>
-      </c>
-      <c r="G228" t="s">
-        <v>41</v>
-      </c>
-      <c r="H228" t="s">
-        <v>327</v>
-      </c>
-      <c r="I228" t="s">
-        <v>155</v>
-      </c>
-      <c r="J228">
-        <v>39</v>
-      </c>
-      <c r="K228" t="s">
-        <v>327</v>
-      </c>
-      <c r="N228">
-        <v>8</v>
-      </c>
-      <c r="T228">
-        <v>1</v>
-      </c>
-      <c r="U228">
-        <v>25</v>
-      </c>
-      <c r="V228" t="s">
-        <v>45</v>
-      </c>
-      <c r="W228">
-        <v>1</v>
-      </c>
-      <c r="X228">
-        <v>25998807</v>
-      </c>
-      <c r="Y228">
-        <v>5</v>
-      </c>
-      <c r="Z228" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="229" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>339</v>
-      </c>
-      <c r="B229" t="s">
-        <v>340</v>
-      </c>
-      <c r="C229" t="s">
-        <v>36</v>
-      </c>
-      <c r="D229" t="s">
-        <v>37</v>
-      </c>
-      <c r="E229" t="s">
-        <v>39</v>
-      </c>
-      <c r="F229" t="s">
-        <v>40</v>
-      </c>
-      <c r="G229" t="s">
-        <v>41</v>
-      </c>
-      <c r="H229" t="s">
-        <v>327</v>
-      </c>
-      <c r="I229" t="s">
-        <v>155</v>
-      </c>
-      <c r="J229">
-        <v>40</v>
-      </c>
-      <c r="K229" t="s">
-        <v>327</v>
-      </c>
-      <c r="N229">
-        <v>8</v>
-      </c>
-      <c r="T229">
-        <v>1</v>
-      </c>
-      <c r="U229">
-        <v>25</v>
-      </c>
-      <c r="V229" t="s">
-        <v>45</v>
-      </c>
-      <c r="W229">
-        <v>1</v>
-      </c>
-      <c r="X229">
-        <v>25998807</v>
-      </c>
-      <c r="Y229">
-        <v>5</v>
-      </c>
-      <c r="Z229" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="230" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>342</v>
-      </c>
-      <c r="B230" t="s">
-        <v>347</v>
-      </c>
-      <c r="C230" t="s">
-        <v>36</v>
-      </c>
-      <c r="D230" t="s">
-        <v>37</v>
-      </c>
-      <c r="E230" t="s">
-        <v>39</v>
-      </c>
-      <c r="F230" t="s">
-        <v>40</v>
-      </c>
-      <c r="G230" t="s">
-        <v>41</v>
-      </c>
-      <c r="H230" t="s">
-        <v>327</v>
-      </c>
-      <c r="I230" t="s">
-        <v>248</v>
-      </c>
-      <c r="J230">
-        <v>36</v>
-      </c>
-      <c r="K230" t="s">
-        <v>327</v>
-      </c>
-      <c r="N230">
-        <v>10</v>
-      </c>
-      <c r="T230">
-        <v>1</v>
-      </c>
-      <c r="U230">
-        <v>25</v>
-      </c>
-      <c r="V230" t="s">
-        <v>45</v>
-      </c>
-      <c r="W230">
-        <v>1</v>
-      </c>
-      <c r="X230">
-        <v>25998807</v>
-      </c>
-      <c r="Y230">
-        <v>5</v>
-      </c>
-      <c r="Z230" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="231" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>343</v>
-      </c>
-      <c r="B231" t="s">
-        <v>347</v>
-      </c>
-      <c r="C231" t="s">
-        <v>36</v>
-      </c>
-      <c r="D231" t="s">
-        <v>37</v>
-      </c>
-      <c r="E231" t="s">
-        <v>39</v>
-      </c>
-      <c r="F231" t="s">
-        <v>40</v>
-      </c>
-      <c r="G231" t="s">
-        <v>41</v>
-      </c>
-      <c r="H231" t="s">
-        <v>327</v>
-      </c>
-      <c r="I231" t="s">
-        <v>248</v>
-      </c>
-      <c r="J231">
-        <v>37</v>
-      </c>
-      <c r="K231" t="s">
-        <v>327</v>
-      </c>
-      <c r="N231">
-        <v>15</v>
-      </c>
-      <c r="T231">
-        <v>1</v>
-      </c>
-      <c r="U231">
-        <v>25</v>
-      </c>
-      <c r="V231" t="s">
-        <v>45</v>
-      </c>
-      <c r="W231">
-        <v>1</v>
-      </c>
-      <c r="X231">
-        <v>25998807</v>
-      </c>
-      <c r="Y231">
-        <v>5</v>
-      </c>
-      <c r="Z231" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="232" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>344</v>
-      </c>
-      <c r="B232" t="s">
-        <v>347</v>
-      </c>
-      <c r="C232" t="s">
-        <v>36</v>
-      </c>
-      <c r="D232" t="s">
-        <v>37</v>
-      </c>
-      <c r="E232" t="s">
-        <v>39</v>
-      </c>
-      <c r="F232" t="s">
-        <v>40</v>
-      </c>
-      <c r="G232" t="s">
-        <v>41</v>
-      </c>
-      <c r="H232" t="s">
-        <v>327</v>
-      </c>
-      <c r="I232" t="s">
-        <v>248</v>
-      </c>
-      <c r="J232">
-        <v>38</v>
-      </c>
-      <c r="K232" t="s">
-        <v>327</v>
-      </c>
-      <c r="N232">
-        <v>15</v>
-      </c>
-      <c r="T232">
-        <v>1</v>
-      </c>
-      <c r="U232">
-        <v>25</v>
-      </c>
-      <c r="V232" t="s">
-        <v>45</v>
-      </c>
-      <c r="W232">
-        <v>1</v>
-      </c>
-      <c r="X232">
-        <v>25998807</v>
-      </c>
-      <c r="Y232">
-        <v>5</v>
-      </c>
-      <c r="Z232" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="233" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>345</v>
-      </c>
-      <c r="B233" t="s">
-        <v>347</v>
-      </c>
-      <c r="C233" t="s">
-        <v>36</v>
-      </c>
-      <c r="D233" t="s">
-        <v>37</v>
-      </c>
-      <c r="E233" t="s">
-        <v>39</v>
-      </c>
-      <c r="F233" t="s">
-        <v>40</v>
-      </c>
-      <c r="G233" t="s">
-        <v>41</v>
-      </c>
-      <c r="H233" t="s">
-        <v>327</v>
-      </c>
-      <c r="I233" t="s">
-        <v>248</v>
-      </c>
-      <c r="J233">
-        <v>39</v>
-      </c>
-      <c r="K233" t="s">
-        <v>327</v>
-      </c>
-      <c r="N233">
-        <v>10</v>
-      </c>
-      <c r="T233">
-        <v>1</v>
-      </c>
-      <c r="U233">
-        <v>25</v>
-      </c>
-      <c r="V233" t="s">
-        <v>45</v>
-      </c>
-      <c r="W233">
-        <v>1</v>
-      </c>
-      <c r="X233">
-        <v>25998807</v>
-      </c>
-      <c r="Y233">
-        <v>5</v>
-      </c>
-      <c r="Z233" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="234" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>346</v>
-      </c>
-      <c r="B234" t="s">
-        <v>347</v>
-      </c>
-      <c r="C234" t="s">
-        <v>36</v>
-      </c>
-      <c r="D234" t="s">
-        <v>37</v>
-      </c>
-      <c r="E234" t="s">
-        <v>39</v>
-      </c>
-      <c r="F234" t="s">
-        <v>40</v>
-      </c>
-      <c r="G234" t="s">
-        <v>41</v>
-      </c>
-      <c r="H234" t="s">
-        <v>327</v>
-      </c>
-      <c r="I234" t="s">
-        <v>248</v>
-      </c>
-      <c r="J234">
-        <v>40</v>
-      </c>
-      <c r="K234" t="s">
-        <v>327</v>
-      </c>
-      <c r="N234">
-        <v>10</v>
-      </c>
-      <c r="T234">
-        <v>1</v>
-      </c>
-      <c r="U234">
-        <v>25</v>
-      </c>
-      <c r="V234" t="s">
-        <v>45</v>
-      </c>
-      <c r="W234">
-        <v>1</v>
-      </c>
-      <c r="X234">
-        <v>25998807</v>
-      </c>
-      <c r="Y234">
-        <v>5</v>
-      </c>
-      <c r="Z234" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="235" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>348</v>
-      </c>
-      <c r="B235" t="s">
-        <v>349</v>
-      </c>
-      <c r="C235" t="s">
-        <v>36</v>
-      </c>
-      <c r="D235" t="s">
-        <v>37</v>
-      </c>
-      <c r="E235" t="s">
-        <v>39</v>
-      </c>
-      <c r="F235" t="s">
-        <v>40</v>
-      </c>
-      <c r="G235" t="s">
-        <v>326</v>
-      </c>
-      <c r="H235" t="s">
-        <v>327</v>
-      </c>
-      <c r="I235" t="s">
-        <v>248</v>
-      </c>
-      <c r="J235">
-        <v>36</v>
-      </c>
-      <c r="K235" t="s">
-        <v>327</v>
-      </c>
-      <c r="N235">
-        <v>30</v>
-      </c>
-      <c r="T235">
-        <v>1</v>
-      </c>
-      <c r="U235">
-        <v>25</v>
-      </c>
-      <c r="V235" t="s">
-        <v>45</v>
-      </c>
-      <c r="W235">
-        <v>1</v>
-      </c>
-      <c r="X235">
-        <v>25998807</v>
-      </c>
-      <c r="Y235">
-        <v>5</v>
-      </c>
-      <c r="Z235" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="236" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>350</v>
-      </c>
-      <c r="B236" t="s">
-        <v>349</v>
-      </c>
-      <c r="C236" t="s">
-        <v>36</v>
-      </c>
-      <c r="D236" t="s">
-        <v>37</v>
-      </c>
-      <c r="E236" t="s">
-        <v>39</v>
-      </c>
-      <c r="F236" t="s">
-        <v>40</v>
-      </c>
-      <c r="G236" t="s">
-        <v>326</v>
-      </c>
-      <c r="H236" t="s">
-        <v>327</v>
-      </c>
-      <c r="I236" t="s">
-        <v>248</v>
-      </c>
-      <c r="J236">
-        <v>37</v>
-      </c>
-      <c r="K236" t="s">
-        <v>327</v>
-      </c>
-      <c r="N236">
-        <v>43</v>
-      </c>
-      <c r="T236">
-        <v>1</v>
-      </c>
-      <c r="U236">
-        <v>25</v>
-      </c>
-      <c r="V236" t="s">
-        <v>45</v>
-      </c>
-      <c r="W236">
-        <v>1</v>
-      </c>
-      <c r="X236">
-        <v>25998807</v>
-      </c>
-      <c r="Y236">
-        <v>5</v>
-      </c>
-      <c r="Z236" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="237" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>351</v>
-      </c>
-      <c r="B237" t="s">
-        <v>349</v>
-      </c>
-      <c r="C237" t="s">
-        <v>36</v>
-      </c>
-      <c r="D237" t="s">
-        <v>37</v>
-      </c>
-      <c r="E237" t="s">
-        <v>39</v>
-      </c>
-      <c r="F237" t="s">
-        <v>40</v>
-      </c>
-      <c r="G237" t="s">
-        <v>326</v>
-      </c>
-      <c r="H237" t="s">
-        <v>327</v>
-      </c>
-      <c r="I237" t="s">
-        <v>248</v>
-      </c>
-      <c r="J237">
-        <v>38</v>
-      </c>
-      <c r="K237" t="s">
-        <v>327</v>
-      </c>
-      <c r="N237">
-        <v>47</v>
-      </c>
-      <c r="T237">
-        <v>1</v>
-      </c>
-      <c r="U237">
-        <v>25</v>
-      </c>
-      <c r="V237" t="s">
-        <v>45</v>
-      </c>
-      <c r="W237">
-        <v>1</v>
-      </c>
-      <c r="X237">
-        <v>25998807</v>
-      </c>
-      <c r="Y237">
-        <v>5</v>
-      </c>
-      <c r="Z237" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="238" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>352</v>
-      </c>
-      <c r="B238" t="s">
-        <v>349</v>
-      </c>
-      <c r="C238" t="s">
-        <v>36</v>
-      </c>
-      <c r="D238" t="s">
-        <v>37</v>
-      </c>
-      <c r="E238" t="s">
-        <v>39</v>
-      </c>
-      <c r="F238" t="s">
-        <v>40</v>
-      </c>
-      <c r="G238" t="s">
-        <v>326</v>
-      </c>
-      <c r="H238" t="s">
-        <v>327</v>
-      </c>
-      <c r="I238" t="s">
-        <v>248</v>
-      </c>
-      <c r="J238">
-        <v>39</v>
-      </c>
-      <c r="K238" t="s">
-        <v>327</v>
-      </c>
-      <c r="N238">
-        <v>31</v>
-      </c>
-      <c r="T238">
-        <v>1</v>
-      </c>
-      <c r="U238">
-        <v>25</v>
-      </c>
-      <c r="V238" t="s">
-        <v>45</v>
-      </c>
-      <c r="W238">
-        <v>1</v>
-      </c>
-      <c r="X238">
-        <v>25998807</v>
-      </c>
-      <c r="Y238">
-        <v>5</v>
-      </c>
-      <c r="Z238" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="239" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>353</v>
-      </c>
-      <c r="B239" t="s">
-        <v>349</v>
-      </c>
-      <c r="C239" t="s">
-        <v>36</v>
-      </c>
-      <c r="D239" t="s">
-        <v>37</v>
-      </c>
-      <c r="E239" t="s">
-        <v>39</v>
-      </c>
-      <c r="F239" t="s">
-        <v>40</v>
-      </c>
-      <c r="G239" t="s">
-        <v>326</v>
-      </c>
-      <c r="H239" t="s">
-        <v>327</v>
-      </c>
-      <c r="I239" t="s">
-        <v>248</v>
-      </c>
-      <c r="J239">
-        <v>40</v>
-      </c>
-      <c r="K239" t="s">
-        <v>327</v>
-      </c>
-      <c r="N239">
-        <v>29</v>
-      </c>
-      <c r="T239">
-        <v>1</v>
-      </c>
-      <c r="U239">
-        <v>25</v>
-      </c>
-      <c r="V239" t="s">
-        <v>45</v>
-      </c>
-      <c r="W239">
-        <v>1</v>
-      </c>
-      <c r="X239">
-        <v>25998807</v>
-      </c>
-      <c r="Y239">
-        <v>5</v>
-      </c>
-      <c r="Z239" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="240" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>355</v>
-      </c>
-      <c r="B240" t="s">
-        <v>360</v>
-      </c>
-      <c r="C240" t="s">
-        <v>36</v>
-      </c>
-      <c r="D240" t="s">
-        <v>37</v>
-      </c>
-      <c r="E240" t="s">
-        <v>39</v>
-      </c>
-      <c r="F240" t="s">
-        <v>40</v>
-      </c>
-      <c r="G240" t="s">
-        <v>326</v>
-      </c>
-      <c r="H240" t="s">
-        <v>327</v>
-      </c>
-      <c r="I240" t="s">
-        <v>155</v>
-      </c>
-      <c r="J240">
-        <v>36</v>
-      </c>
-      <c r="K240" t="s">
-        <v>327</v>
-      </c>
-      <c r="N240">
-        <v>30</v>
-      </c>
-      <c r="T240">
-        <v>1</v>
-      </c>
-      <c r="U240">
-        <v>25</v>
-      </c>
-      <c r="V240" t="s">
-        <v>45</v>
-      </c>
-      <c r="W240">
-        <v>1</v>
-      </c>
-      <c r="X240">
-        <v>25998807</v>
-      </c>
-      <c r="Y240">
-        <v>5</v>
-      </c>
-      <c r="Z240" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="241" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>356</v>
-      </c>
-      <c r="B241" t="s">
-        <v>360</v>
-      </c>
-      <c r="C241" t="s">
-        <v>36</v>
-      </c>
-      <c r="D241" t="s">
-        <v>37</v>
-      </c>
-      <c r="E241" t="s">
-        <v>39</v>
-      </c>
-      <c r="F241" t="s">
-        <v>40</v>
-      </c>
-      <c r="G241" t="s">
-        <v>326</v>
-      </c>
-      <c r="H241" t="s">
-        <v>327</v>
-      </c>
-      <c r="I241" t="s">
-        <v>155</v>
-      </c>
-      <c r="J241">
-        <v>37</v>
-      </c>
-      <c r="K241" t="s">
-        <v>327</v>
-      </c>
-      <c r="N241">
-        <v>45</v>
-      </c>
-      <c r="T241">
-        <v>1</v>
-      </c>
-      <c r="U241">
-        <v>25</v>
-      </c>
-      <c r="V241" t="s">
-        <v>45</v>
-      </c>
-      <c r="W241">
-        <v>1</v>
-      </c>
-      <c r="X241">
-        <v>25998807</v>
-      </c>
-      <c r="Y241">
-        <v>5</v>
-      </c>
-      <c r="Z241" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="242" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>357</v>
-      </c>
-      <c r="B242" t="s">
-        <v>360</v>
-      </c>
-      <c r="C242" t="s">
-        <v>36</v>
-      </c>
-      <c r="D242" t="s">
-        <v>37</v>
-      </c>
-      <c r="E242" t="s">
-        <v>39</v>
-      </c>
-      <c r="F242" t="s">
-        <v>40</v>
-      </c>
-      <c r="G242" t="s">
-        <v>326</v>
-      </c>
-      <c r="H242" t="s">
-        <v>327</v>
-      </c>
-      <c r="I242" t="s">
-        <v>155</v>
-      </c>
-      <c r="J242">
-        <v>38</v>
-      </c>
-      <c r="K242" t="s">
-        <v>327</v>
-      </c>
-      <c r="N242">
-        <v>45</v>
-      </c>
-      <c r="T242">
-        <v>1</v>
-      </c>
-      <c r="U242">
-        <v>25</v>
-      </c>
-      <c r="V242" t="s">
-        <v>45</v>
-      </c>
-      <c r="W242">
-        <v>1</v>
-      </c>
-      <c r="X242">
-        <v>25998807</v>
-      </c>
-      <c r="Y242">
-        <v>5</v>
-      </c>
-      <c r="Z242" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="243" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>358</v>
-      </c>
-      <c r="B243" t="s">
-        <v>360</v>
-      </c>
-      <c r="C243" t="s">
-        <v>36</v>
-      </c>
-      <c r="D243" t="s">
-        <v>37</v>
-      </c>
-      <c r="E243" t="s">
-        <v>39</v>
-      </c>
-      <c r="F243" t="s">
-        <v>40</v>
-      </c>
-      <c r="G243" t="s">
-        <v>326</v>
-      </c>
-      <c r="H243" t="s">
-        <v>327</v>
-      </c>
-      <c r="I243" t="s">
-        <v>155</v>
-      </c>
-      <c r="J243">
-        <v>39</v>
-      </c>
-      <c r="K243" t="s">
-        <v>327</v>
-      </c>
-      <c r="N243">
-        <v>32</v>
-      </c>
-      <c r="T243">
-        <v>1</v>
-      </c>
-      <c r="U243">
-        <v>25</v>
-      </c>
-      <c r="V243" t="s">
-        <v>45</v>
-      </c>
-      <c r="W243">
-        <v>1</v>
-      </c>
-      <c r="X243">
-        <v>25998807</v>
-      </c>
-      <c r="Y243">
-        <v>5</v>
-      </c>
-      <c r="Z243" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="244" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>359</v>
-      </c>
-      <c r="B244" t="s">
-        <v>360</v>
-      </c>
-      <c r="C244" t="s">
-        <v>36</v>
-      </c>
-      <c r="D244" t="s">
-        <v>37</v>
-      </c>
-      <c r="E244" t="s">
-        <v>39</v>
-      </c>
-      <c r="F244" t="s">
-        <v>40</v>
-      </c>
-      <c r="G244" t="s">
-        <v>326</v>
-      </c>
-      <c r="H244" t="s">
-        <v>327</v>
-      </c>
-      <c r="I244" t="s">
-        <v>155</v>
-      </c>
-      <c r="J244">
-        <v>40</v>
-      </c>
-      <c r="K244" t="s">
-        <v>327</v>
-      </c>
-      <c r="N244">
-        <v>28</v>
-      </c>
-      <c r="T244">
-        <v>1</v>
-      </c>
-      <c r="U244">
-        <v>25</v>
-      </c>
-      <c r="V244" t="s">
-        <v>45</v>
-      </c>
-      <c r="W244">
-        <v>1</v>
-      </c>
-      <c r="X244">
-        <v>25998807</v>
-      </c>
-      <c r="Y244">
-        <v>5</v>
-      </c>
-      <c r="Z244" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="245" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>361</v>
-      </c>
-      <c r="B245" t="s">
-        <v>362</v>
-      </c>
-      <c r="C245" t="s">
-        <v>36</v>
-      </c>
-      <c r="D245" t="s">
-        <v>37</v>
-      </c>
-      <c r="E245" t="s">
-        <v>39</v>
-      </c>
-      <c r="F245" t="s">
-        <v>40</v>
-      </c>
-      <c r="G245" t="s">
-        <v>326</v>
-      </c>
-      <c r="H245" t="s">
-        <v>327</v>
-      </c>
-      <c r="I245" t="s">
-        <v>363</v>
-      </c>
-      <c r="J245">
-        <v>36</v>
-      </c>
-      <c r="K245" t="s">
-        <v>327</v>
-      </c>
-      <c r="N245">
-        <v>6</v>
-      </c>
-      <c r="T245">
-        <v>1</v>
-      </c>
-      <c r="U245">
-        <v>25</v>
-      </c>
-      <c r="V245" t="s">
-        <v>45</v>
-      </c>
-      <c r="W245">
-        <v>1</v>
-      </c>
-      <c r="X245">
-        <v>25998807</v>
-      </c>
-      <c r="Y245">
-        <v>5</v>
-      </c>
-      <c r="Z245" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="246" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>368</v>
-      </c>
-      <c r="B246" t="s">
-        <v>362</v>
-      </c>
-      <c r="C246" t="s">
-        <v>36</v>
-      </c>
-      <c r="D246" t="s">
-        <v>37</v>
-      </c>
-      <c r="E246" t="s">
-        <v>39</v>
-      </c>
-      <c r="F246" t="s">
-        <v>40</v>
-      </c>
-      <c r="G246" t="s">
-        <v>326</v>
-      </c>
-      <c r="H246" t="s">
-        <v>327</v>
-      </c>
-      <c r="I246" t="s">
-        <v>363</v>
-      </c>
-      <c r="J246">
-        <v>37</v>
-      </c>
-      <c r="K246" t="s">
-        <v>327</v>
-      </c>
-      <c r="N246">
-        <v>8</v>
-      </c>
-      <c r="T246">
-        <v>1</v>
-      </c>
-      <c r="U246">
-        <v>25</v>
-      </c>
-      <c r="V246" t="s">
-        <v>45</v>
-      </c>
-      <c r="W246">
-        <v>1</v>
-      </c>
-      <c r="X246">
-        <v>25998807</v>
-      </c>
-      <c r="Y246">
-        <v>5</v>
-      </c>
-      <c r="Z246" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="247" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>369</v>
-      </c>
-      <c r="B247" t="s">
-        <v>362</v>
-      </c>
-      <c r="C247" t="s">
-        <v>36</v>
-      </c>
-      <c r="D247" t="s">
-        <v>37</v>
-      </c>
-      <c r="E247" t="s">
-        <v>39</v>
-      </c>
-      <c r="F247" t="s">
-        <v>40</v>
-      </c>
-      <c r="G247" t="s">
-        <v>326</v>
-      </c>
-      <c r="H247" t="s">
-        <v>327</v>
-      </c>
-      <c r="I247" t="s">
-        <v>363</v>
-      </c>
-      <c r="J247">
-        <v>38</v>
-      </c>
-      <c r="K247" t="s">
-        <v>327</v>
-      </c>
-      <c r="N247">
-        <v>10</v>
-      </c>
-      <c r="T247">
-        <v>1</v>
-      </c>
-      <c r="U247">
-        <v>25</v>
-      </c>
-      <c r="V247" t="s">
-        <v>45</v>
-      </c>
-      <c r="W247">
-        <v>1</v>
-      </c>
-      <c r="X247">
-        <v>25998807</v>
-      </c>
-      <c r="Y247">
-        <v>5</v>
-      </c>
-      <c r="Z247" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="248" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>370</v>
-      </c>
-      <c r="B248" t="s">
-        <v>362</v>
-      </c>
-      <c r="C248" t="s">
-        <v>36</v>
-      </c>
-      <c r="D248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E248" t="s">
-        <v>39</v>
-      </c>
-      <c r="F248" t="s">
-        <v>40</v>
-      </c>
-      <c r="G248" t="s">
-        <v>326</v>
-      </c>
-      <c r="H248" t="s">
-        <v>327</v>
-      </c>
-      <c r="I248" t="s">
-        <v>363</v>
-      </c>
-      <c r="J248">
-        <v>39</v>
-      </c>
-      <c r="K248" t="s">
-        <v>327</v>
-      </c>
-      <c r="N248">
-        <v>10</v>
-      </c>
-      <c r="T248">
-        <v>1</v>
-      </c>
-      <c r="U248">
-        <v>25</v>
-      </c>
-      <c r="V248" t="s">
-        <v>45</v>
-      </c>
-      <c r="W248">
-        <v>1</v>
-      </c>
-      <c r="X248">
-        <v>25998807</v>
-      </c>
-      <c r="Y248">
-        <v>5</v>
-      </c>
-      <c r="Z248" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="249" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>371</v>
-      </c>
-      <c r="B249" t="s">
-        <v>362</v>
-      </c>
-      <c r="C249" t="s">
-        <v>36</v>
-      </c>
-      <c r="D249" t="s">
-        <v>37</v>
-      </c>
-      <c r="E249" t="s">
-        <v>39</v>
-      </c>
-      <c r="F249" t="s">
-        <v>40</v>
-      </c>
-      <c r="G249" t="s">
-        <v>326</v>
-      </c>
-      <c r="H249" t="s">
-        <v>327</v>
-      </c>
-      <c r="I249" t="s">
-        <v>363</v>
-      </c>
-      <c r="J249">
-        <v>40</v>
-      </c>
-      <c r="K249" t="s">
-        <v>327</v>
-      </c>
-      <c r="N249">
-        <v>6</v>
-      </c>
-      <c r="T249">
-        <v>1</v>
-      </c>
-      <c r="U249">
-        <v>25</v>
-      </c>
-      <c r="V249" t="s">
-        <v>45</v>
-      </c>
-      <c r="W249">
-        <v>1</v>
-      </c>
-      <c r="X249">
-        <v>25998807</v>
-      </c>
-      <c r="Y249">
-        <v>5</v>
-      </c>
-      <c r="Z249" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="250" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>372</v>
-      </c>
-      <c r="B250" t="s">
-        <v>365</v>
-      </c>
-      <c r="C250" t="s">
-        <v>36</v>
-      </c>
-      <c r="D250" t="s">
-        <v>37</v>
-      </c>
-      <c r="E250" t="s">
-        <v>39</v>
-      </c>
-      <c r="F250" t="s">
-        <v>40</v>
-      </c>
-      <c r="G250" t="s">
-        <v>326</v>
-      </c>
-      <c r="H250" t="s">
-        <v>327</v>
-      </c>
-      <c r="I250" t="s">
-        <v>366</v>
-      </c>
-      <c r="J250">
-        <v>36</v>
-      </c>
-      <c r="K250" t="s">
-        <v>327</v>
-      </c>
-      <c r="N250">
-        <v>3</v>
-      </c>
-      <c r="T250">
-        <v>1</v>
-      </c>
-      <c r="U250">
-        <v>25</v>
-      </c>
-      <c r="V250" t="s">
-        <v>45</v>
-      </c>
-      <c r="W250">
-        <v>1</v>
-      </c>
-      <c r="X250">
-        <v>25998807</v>
-      </c>
-      <c r="Y250">
-        <v>5</v>
-      </c>
-      <c r="Z250" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="251" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>373</v>
-      </c>
-      <c r="B251" t="s">
-        <v>365</v>
-      </c>
-      <c r="C251" t="s">
-        <v>36</v>
-      </c>
-      <c r="D251" t="s">
-        <v>37</v>
-      </c>
-      <c r="E251" t="s">
-        <v>39</v>
-      </c>
-      <c r="F251" t="s">
-        <v>40</v>
-      </c>
-      <c r="G251" t="s">
-        <v>326</v>
-      </c>
-      <c r="H251" t="s">
-        <v>327</v>
-      </c>
-      <c r="I251" t="s">
-        <v>366</v>
-      </c>
-      <c r="J251">
-        <v>37</v>
-      </c>
-      <c r="K251" t="s">
-        <v>327</v>
-      </c>
-      <c r="N251">
-        <v>4</v>
-      </c>
-      <c r="T251">
-        <v>1</v>
-      </c>
-      <c r="U251">
-        <v>25</v>
-      </c>
-      <c r="V251" t="s">
-        <v>45</v>
-      </c>
-      <c r="W251">
-        <v>1</v>
-      </c>
-      <c r="X251">
-        <v>25998807</v>
-      </c>
-      <c r="Y251">
-        <v>5</v>
-      </c>
-      <c r="Z251" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="252" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>374</v>
-      </c>
-      <c r="B252" t="s">
-        <v>365</v>
-      </c>
-      <c r="C252" t="s">
-        <v>36</v>
-      </c>
-      <c r="D252" t="s">
-        <v>37</v>
-      </c>
-      <c r="E252" t="s">
-        <v>39</v>
-      </c>
-      <c r="F252" t="s">
-        <v>40</v>
-      </c>
-      <c r="G252" t="s">
-        <v>326</v>
-      </c>
-      <c r="H252" t="s">
-        <v>327</v>
-      </c>
-      <c r="I252" t="s">
-        <v>366</v>
-      </c>
-      <c r="J252">
-        <v>38</v>
-      </c>
-      <c r="K252" t="s">
-        <v>327</v>
-      </c>
-      <c r="N252">
-        <v>5</v>
-      </c>
-      <c r="T252">
-        <v>1</v>
-      </c>
-      <c r="U252">
-        <v>25</v>
-      </c>
-      <c r="V252" t="s">
-        <v>45</v>
-      </c>
-      <c r="W252">
-        <v>1</v>
-      </c>
-      <c r="X252">
-        <v>25998807</v>
-      </c>
-      <c r="Y252">
-        <v>5</v>
-      </c>
-      <c r="Z252" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="253" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>375</v>
-      </c>
-      <c r="B253" t="s">
-        <v>365</v>
-      </c>
-      <c r="C253" t="s">
-        <v>36</v>
-      </c>
-      <c r="D253" t="s">
-        <v>37</v>
-      </c>
-      <c r="E253" t="s">
-        <v>39</v>
-      </c>
-      <c r="F253" t="s">
-        <v>40</v>
-      </c>
-      <c r="G253" t="s">
-        <v>326</v>
-      </c>
-      <c r="H253" t="s">
-        <v>327</v>
-      </c>
-      <c r="I253" t="s">
-        <v>366</v>
-      </c>
-      <c r="J253">
-        <v>39</v>
-      </c>
-      <c r="K253" t="s">
-        <v>327</v>
-      </c>
-      <c r="N253">
-        <v>5</v>
-      </c>
-      <c r="T253">
-        <v>1</v>
-      </c>
-      <c r="U253">
-        <v>25</v>
-      </c>
-      <c r="V253" t="s">
-        <v>45</v>
-      </c>
-      <c r="W253">
-        <v>1</v>
-      </c>
-      <c r="X253">
-        <v>25998807</v>
-      </c>
-      <c r="Y253">
-        <v>5</v>
-      </c>
-      <c r="Z253" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="254" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>364</v>
-      </c>
-      <c r="B254" t="s">
-        <v>365</v>
-      </c>
-      <c r="C254" t="s">
-        <v>36</v>
-      </c>
-      <c r="D254" t="s">
-        <v>37</v>
-      </c>
-      <c r="E254" t="s">
-        <v>39</v>
-      </c>
-      <c r="F254" t="s">
-        <v>40</v>
-      </c>
-      <c r="G254" t="s">
-        <v>326</v>
-      </c>
-      <c r="H254" t="s">
-        <v>327</v>
-      </c>
-      <c r="I254" t="s">
-        <v>366</v>
-      </c>
-      <c r="J254">
-        <v>40</v>
-      </c>
-      <c r="K254" t="s">
-        <v>327</v>
-      </c>
-      <c r="N254">
-        <v>3</v>
-      </c>
-      <c r="T254">
-        <v>1</v>
-      </c>
-      <c r="U254">
-        <v>25</v>
-      </c>
-      <c r="V254" t="s">
-        <v>45</v>
-      </c>
-      <c r="W254">
-        <v>1</v>
-      </c>
-      <c r="X254">
-        <v>25998807</v>
-      </c>
-      <c r="Y254">
-        <v>5</v>
-      </c>
-      <c r="Z254" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="255" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>376</v>
-      </c>
-      <c r="B255" t="s">
-        <v>380</v>
-      </c>
-      <c r="C255" t="s">
-        <v>36</v>
-      </c>
-      <c r="D255" t="s">
-        <v>37</v>
-      </c>
-      <c r="E255" t="s">
-        <v>39</v>
-      </c>
-      <c r="F255" t="s">
-        <v>40</v>
-      </c>
-      <c r="G255" t="s">
-        <v>326</v>
-      </c>
-      <c r="H255" t="s">
-        <v>327</v>
-      </c>
-      <c r="I255" t="s">
-        <v>381</v>
-      </c>
-      <c r="J255">
-        <v>36</v>
-      </c>
-      <c r="K255" t="s">
-        <v>327</v>
-      </c>
-      <c r="N255">
-        <v>2</v>
-      </c>
-      <c r="T255">
-        <v>1</v>
-      </c>
-      <c r="U255">
-        <v>25</v>
-      </c>
-      <c r="V255" t="s">
-        <v>45</v>
-      </c>
-      <c r="W255">
-        <v>1</v>
-      </c>
-      <c r="X255">
-        <v>25998807</v>
-      </c>
-      <c r="Y255">
-        <v>5</v>
-      </c>
-      <c r="Z255" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="256" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>377</v>
-      </c>
-      <c r="B256" t="s">
-        <v>380</v>
-      </c>
-      <c r="C256" t="s">
-        <v>36</v>
-      </c>
-      <c r="D256" t="s">
-        <v>37</v>
-      </c>
-      <c r="E256" t="s">
-        <v>39</v>
-      </c>
-      <c r="F256" t="s">
-        <v>40</v>
-      </c>
-      <c r="G256" t="s">
-        <v>326</v>
-      </c>
-      <c r="H256" t="s">
-        <v>327</v>
-      </c>
-      <c r="I256" t="s">
-        <v>381</v>
-      </c>
-      <c r="J256">
-        <v>37</v>
-      </c>
-      <c r="K256" t="s">
-        <v>327</v>
-      </c>
-      <c r="N256">
-        <v>3</v>
-      </c>
-      <c r="T256">
-        <v>1</v>
-      </c>
-      <c r="U256">
-        <v>25</v>
-      </c>
-      <c r="V256" t="s">
-        <v>45</v>
-      </c>
-      <c r="W256">
-        <v>1</v>
-      </c>
-      <c r="X256">
-        <v>25998807</v>
-      </c>
-      <c r="Y256">
-        <v>5</v>
-      </c>
-      <c r="Z256" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="257" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>378</v>
-      </c>
-      <c r="B257" t="s">
-        <v>380</v>
-      </c>
-      <c r="C257" t="s">
-        <v>36</v>
-      </c>
-      <c r="D257" t="s">
-        <v>37</v>
-      </c>
-      <c r="E257" t="s">
-        <v>39</v>
-      </c>
-      <c r="F257" t="s">
-        <v>40</v>
-      </c>
-      <c r="G257" t="s">
-        <v>326</v>
-      </c>
-      <c r="H257" t="s">
-        <v>327</v>
-      </c>
-      <c r="I257" t="s">
-        <v>381</v>
-      </c>
-      <c r="J257">
-        <v>38</v>
-      </c>
-      <c r="K257" t="s">
-        <v>327</v>
-      </c>
-      <c r="N257">
-        <v>3</v>
-      </c>
-      <c r="T257">
-        <v>1</v>
-      </c>
-      <c r="U257">
-        <v>25</v>
-      </c>
-      <c r="V257" t="s">
-        <v>45</v>
-      </c>
-      <c r="W257">
-        <v>1</v>
-      </c>
-      <c r="X257">
-        <v>25998807</v>
-      </c>
-      <c r="Y257">
-        <v>5</v>
-      </c>
-      <c r="Z257" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="258" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>379</v>
-      </c>
-      <c r="B258" t="s">
-        <v>380</v>
-      </c>
-      <c r="C258" t="s">
-        <v>36</v>
-      </c>
-      <c r="D258" t="s">
-        <v>37</v>
-      </c>
-      <c r="E258" t="s">
-        <v>39</v>
-      </c>
-      <c r="F258" t="s">
-        <v>40</v>
-      </c>
-      <c r="G258" t="s">
-        <v>326</v>
-      </c>
-      <c r="H258" t="s">
-        <v>327</v>
-      </c>
-      <c r="I258" t="s">
-        <v>381</v>
-      </c>
-      <c r="J258">
-        <v>39</v>
-      </c>
-      <c r="K258" t="s">
-        <v>327</v>
-      </c>
-      <c r="N258">
-        <v>2</v>
-      </c>
-      <c r="T258">
-        <v>1</v>
-      </c>
-      <c r="U258">
-        <v>25</v>
-      </c>
-      <c r="V258" t="s">
-        <v>45</v>
-      </c>
-      <c r="W258">
-        <v>1</v>
-      </c>
-      <c r="X258">
-        <v>25998807</v>
-      </c>
-      <c r="Y258">
-        <v>5</v>
-      </c>
-      <c r="Z258" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="259" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>367</v>
-      </c>
-      <c r="B259" t="s">
-        <v>380</v>
-      </c>
-      <c r="C259" t="s">
-        <v>36</v>
-      </c>
-      <c r="D259" t="s">
-        <v>37</v>
-      </c>
-      <c r="E259" t="s">
-        <v>39</v>
-      </c>
-      <c r="F259" t="s">
-        <v>40</v>
-      </c>
-      <c r="G259" t="s">
-        <v>326</v>
-      </c>
-      <c r="H259" t="s">
-        <v>327</v>
-      </c>
-      <c r="I259" t="s">
-        <v>381</v>
-      </c>
-      <c r="J259">
-        <v>40</v>
-      </c>
-      <c r="K259" t="s">
-        <v>327</v>
-      </c>
-      <c r="N259">
-        <v>2</v>
-      </c>
-      <c r="T259">
-        <v>1</v>
-      </c>
-      <c r="U259">
-        <v>25</v>
-      </c>
-      <c r="V259" t="s">
-        <v>45</v>
-      </c>
-      <c r="W259">
-        <v>1</v>
-      </c>
-      <c r="X259">
-        <v>25998807</v>
-      </c>
-      <c r="Y259">
-        <v>5</v>
-      </c>
-      <c r="Z259" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="260" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>382</v>
-      </c>
-      <c r="B260" t="s">
-        <v>388</v>
-      </c>
-      <c r="C260" t="s">
-        <v>36</v>
-      </c>
-      <c r="D260" t="s">
-        <v>38</v>
-      </c>
-      <c r="E260" t="s">
-        <v>39</v>
-      </c>
-      <c r="F260" t="s">
-        <v>40</v>
-      </c>
-      <c r="G260" t="s">
-        <v>41</v>
-      </c>
-      <c r="H260" t="s">
-        <v>247</v>
-      </c>
-      <c r="I260" t="s">
-        <v>53</v>
-      </c>
-      <c r="J260">
-        <v>40</v>
-      </c>
-      <c r="K260" t="s">
-        <v>247</v>
-      </c>
-      <c r="N260">
-        <v>8</v>
-      </c>
-      <c r="T260">
-        <v>1</v>
-      </c>
-      <c r="U260">
-        <v>25</v>
-      </c>
-      <c r="V260" t="s">
-        <v>45</v>
-      </c>
-      <c r="W260">
-        <v>1</v>
-      </c>
-      <c r="X260">
-        <v>25998807</v>
-      </c>
-      <c r="Y260">
-        <v>5</v>
-      </c>
-      <c r="Z260" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="261" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>383</v>
-      </c>
-      <c r="B261" t="s">
-        <v>388</v>
-      </c>
-      <c r="C261" t="s">
-        <v>36</v>
-      </c>
-      <c r="D261" t="s">
-        <v>38</v>
-      </c>
-      <c r="E261" t="s">
-        <v>39</v>
-      </c>
-      <c r="F261" t="s">
-        <v>40</v>
-      </c>
-      <c r="G261" t="s">
-        <v>41</v>
-      </c>
-      <c r="H261" t="s">
-        <v>247</v>
-      </c>
-      <c r="I261" t="s">
-        <v>53</v>
-      </c>
-      <c r="J261">
-        <v>41</v>
-      </c>
-      <c r="K261" t="s">
-        <v>247</v>
-      </c>
-      <c r="N261">
-        <v>8</v>
-      </c>
-      <c r="T261">
-        <v>1</v>
-      </c>
-      <c r="U261">
-        <v>15</v>
-      </c>
-      <c r="V261" t="s">
-        <v>45</v>
-      </c>
-      <c r="W261">
-        <v>1</v>
-      </c>
-      <c r="X261">
-        <v>25998807</v>
-      </c>
-      <c r="Y261">
-        <v>5</v>
-      </c>
-      <c r="Z261" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="262" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>384</v>
-      </c>
-      <c r="B262" t="s">
-        <v>388</v>
-      </c>
-      <c r="C262" t="s">
-        <v>36</v>
-      </c>
-      <c r="D262" t="s">
-        <v>38</v>
-      </c>
-      <c r="E262" t="s">
-        <v>39</v>
-      </c>
-      <c r="F262" t="s">
-        <v>40</v>
-      </c>
-      <c r="G262" t="s">
-        <v>41</v>
-      </c>
-      <c r="H262" t="s">
-        <v>247</v>
-      </c>
-      <c r="I262" t="s">
-        <v>53</v>
-      </c>
-      <c r="J262">
-        <v>42</v>
-      </c>
-      <c r="K262" t="s">
-        <v>247</v>
-      </c>
-      <c r="N262">
-        <v>16</v>
-      </c>
-      <c r="T262">
-        <v>1</v>
-      </c>
-      <c r="U262">
-        <v>15</v>
-      </c>
-      <c r="V262" t="s">
-        <v>45</v>
-      </c>
-      <c r="W262">
-        <v>1</v>
-      </c>
-      <c r="X262">
-        <v>25998807</v>
-      </c>
-      <c r="Y262">
-        <v>5</v>
-      </c>
-      <c r="Z262" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="263" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>385</v>
-      </c>
-      <c r="B263" t="s">
-        <v>388</v>
-      </c>
-      <c r="C263" t="s">
-        <v>36</v>
-      </c>
-      <c r="D263" t="s">
-        <v>38</v>
-      </c>
-      <c r="E263" t="s">
-        <v>39</v>
-      </c>
-      <c r="F263" t="s">
-        <v>40</v>
-      </c>
-      <c r="G263" t="s">
-        <v>41</v>
-      </c>
-      <c r="H263" t="s">
-        <v>247</v>
-      </c>
-      <c r="I263" t="s">
-        <v>53</v>
-      </c>
-      <c r="J263">
-        <v>43</v>
-      </c>
-      <c r="K263" t="s">
-        <v>247</v>
-      </c>
-      <c r="N263">
-        <v>16</v>
-      </c>
-      <c r="T263">
-        <v>1</v>
-      </c>
-      <c r="U263">
-        <v>15</v>
-      </c>
-      <c r="V263" t="s">
-        <v>45</v>
-      </c>
-      <c r="W263">
-        <v>1</v>
-      </c>
-      <c r="X263">
-        <v>25998807</v>
-      </c>
-      <c r="Y263">
-        <v>5</v>
-      </c>
-      <c r="Z263" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="264" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>386</v>
-      </c>
-      <c r="B264" t="s">
-        <v>388</v>
-      </c>
-      <c r="C264" t="s">
-        <v>36</v>
-      </c>
-      <c r="D264" t="s">
-        <v>38</v>
-      </c>
-      <c r="E264" t="s">
-        <v>39</v>
-      </c>
-      <c r="F264" t="s">
-        <v>40</v>
-      </c>
-      <c r="G264" t="s">
-        <v>41</v>
-      </c>
-      <c r="H264" t="s">
-        <v>247</v>
-      </c>
-      <c r="I264" t="s">
-        <v>53</v>
-      </c>
-      <c r="J264">
-        <v>44</v>
-      </c>
-      <c r="K264" t="s">
-        <v>247</v>
-      </c>
-      <c r="N264">
-        <v>8</v>
-      </c>
-      <c r="T264">
-        <v>1</v>
-      </c>
-      <c r="U264">
-        <v>15</v>
-      </c>
-      <c r="V264" t="s">
-        <v>45</v>
-      </c>
-      <c r="W264">
-        <v>1</v>
-      </c>
-      <c r="X264">
-        <v>25998807</v>
-      </c>
-      <c r="Y264">
-        <v>5</v>
-      </c>
-      <c r="Z264" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="265" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>387</v>
-      </c>
-      <c r="B265" t="s">
-        <v>388</v>
-      </c>
-      <c r="C265" t="s">
-        <v>36</v>
-      </c>
-      <c r="D265" t="s">
-        <v>38</v>
-      </c>
-      <c r="E265" t="s">
-        <v>39</v>
-      </c>
-      <c r="F265" t="s">
-        <v>40</v>
-      </c>
-      <c r="G265" t="s">
-        <v>41</v>
-      </c>
-      <c r="H265" t="s">
-        <v>247</v>
-      </c>
-      <c r="I265" t="s">
-        <v>53</v>
-      </c>
-      <c r="J265">
-        <v>45</v>
-      </c>
-      <c r="K265" t="s">
-        <v>247</v>
-      </c>
-      <c r="N265">
-        <v>8</v>
-      </c>
-      <c r="T265">
-        <v>1</v>
-      </c>
-      <c r="U265">
-        <v>15</v>
-      </c>
-      <c r="V265" t="s">
-        <v>45</v>
-      </c>
-      <c r="W265">
-        <v>1</v>
-      </c>
-      <c r="X265">
-        <v>25998807</v>
-      </c>
-      <c r="Y265">
-        <v>5</v>
-      </c>
-      <c r="Z265" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
